--- a/datasets/lastfm-64-euclidean-true-labels.xlsx
+++ b/datasets/lastfm-64-euclidean-true-labels.xlsx
@@ -903,9 +903,9 @@
  104295 141063 167525  68583 197427   4101  91652  42365 161982 245125
  163357  98336 272948  26698  98341 154828 163810 102434 236608 132869
  134923  59650 178011  73236 246181 267154 138284 217523 207656 180933
- 231835  35687 156251 261499 115424 218992 143818 282579 142688 242835
+ 231835  35687 156251 261499 115424 218992 143818 282579 242835 142688
  277676 153229  34020 133519 244142 238910 153352 232050 119371  32617
- 238077 142940 270727  13676 188955  77739 267153  26841 159285 154845]</t>
+ 238077 142940 270727 188955  13676  77739 267153  26841 159285 154845]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -970,7 +970,7 @@
   54370 252160 233868 261920 112808 259229 239151 220797 144389 137513
     340  63582 229823 255379  41672 281778 177375 144497 251646 226409
   21391 136038  19914 182988 216319 194610  23280 245665 244731 134103
-  19572 186149 231957 205997 251818  78985 114284 263087 213031 274628
+  19572 186149 231957 205997 251818  78985 263087 114284 213031 274628
  135271 113246 217217  19271 256173 175200 117795 136613 131157   9486
  252186 254196 184201 265749 169766    152 241388 145787 117438 258099
  229740 117412 130285  82734  31277 155790  54359 178796 251847 266214
@@ -980,7 +980,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[13.5404 13.5428 13.5443 13.5447 13.545  13.5454 13.5457 13.5462 13.5467
+          <t>[13.5404 13.5428 13.5443 13.5448 13.545  13.5454 13.5457 13.5462 13.5467
  13.5471 13.5472 13.5475 13.5476 13.5488 13.5488 13.5489 13.549  13.5493
  13.5494 13.5499 13.5501 13.5504 13.5504 13.5507 13.5513 13.5514 13.5519
  13.5522 13.5522 13.5523 13.5525 13.5529 13.5532 13.5532 13.5533 13.5534
@@ -1077,7 +1077,7 @@
   26437 210874 253778 199691 247213  89165  59388 214246 146118 262981
  147899 265740 198859 193727 142954 276889 240117   6385 214999  77592
  214322 174496 253299  46372 254541 280839 254435 192419 271882 247591
- 233655 258051 252828 255149 177478  50459 194630 136336 252808 230814
+ 233655 258051 252828 177478 255149  50459 194630 136336 252808 230814
  253284  72637 217118 258244  25830 258577 255443  12204 265056 217901]</t>
         </is>
       </c>
@@ -1091,7 +1091,7 @@
  11.5949 11.595  11.595  11.595  11.595  11.5951 11.5954 11.5955 11.5955
  11.5962 11.5962 11.5966 11.5966 11.5967 11.5967 11.597  11.5972 11.5972
  11.5973 11.5977 11.5978 11.5979 11.5979 11.598  11.598  11.5981 11.5983
- 11.5984 11.5984 11.5984 11.5985 11.5986 11.5987 11.5988 11.5992 11.5993
+ 11.5984 11.5984 11.5984 11.5985 11.5986 11.5987 11.5989 11.5992 11.5993
  11.5995 11.5995 11.5996 11.5996 11.5998 11.6002 11.6002 11.6003 11.6004
  11.6004 11.6004 11.6006 11.6006 11.6007 11.6007 11.6007 11.6011 11.6013
  11.6014]</t>
@@ -1555,7 +1555,7 @@
   92239 213530 256738 261423 161432 265120 226223 192419  73871  32617
  257333  99353 168440 282974 263806 264371 250356 254550 247612 254059
  258362 178011  92074 262836 270238 142940 235136 252057 214999 154231
-  98336 162114 209717 177512 158477  43343 255364 219644 132091 254639
+  98336 162114 209717 177512 158477  43343 255364 219644 254639 132091
  258495 129611 139193 134923 142943 282464 146442 143818 212909  29689]</t>
         </is>
       </c>
@@ -1585,7 +1585,7 @@
           <t>[225860  43254  53284  53148   9638 110755   8065 267249 160992  67444
   57504 123832 126093 222217   6824  20361 251287 167325 190787 235804
  211404  78678 237999 109642 130797  23168 228750 249304  79238 261061
- 275373 252377  47614  79012  48726 209062  31321 102828 186773  69262
+ 275373 252377  47614  79012 209062  48726  31321 102828 186773  69262
  142414 188297  44674  27277  69523 276583 177286 222380 171304 279392
   42768 223465 119261  79483 185641 228351 268148 101669 229692 165213
  220373  60026 177534  29711 137222 176444 242560 230986 210403 239462
@@ -1598,7 +1598,7 @@
         <is>
           <t>[11.7059 11.7106 11.7109 11.7117 11.7132 11.7149 11.7159 11.716  11.717
  11.7186 11.7206 11.7207 11.721  11.7216 11.7219 11.722  11.7224 11.7238
- 11.7238 11.7244 11.7246 11.7248 11.7248 11.7249 11.7256 11.726  11.7261
+ 11.7238 11.7244 11.7246 11.7248 11.7248 11.7249 11.7256 11.7259 11.7261
  11.7262 11.7264 11.7268 11.7269 11.7271 11.7272 11.7274 11.7274 11.7274
  11.7277 11.7277 11.7279 11.7281 11.7284 11.7284 11.7287 11.7288 11.7288
  11.7288 11.7288 11.7288 11.7291 11.7293 11.7296 11.7296 11.73   11.7301
@@ -1658,8 +1658,8 @@
   81785 237642 214238  20708 115370 275287 222864 112181 146040 170252
  199640 267653 253132 136829 175702  90469 180940 183520 129480  38856
  193757  28719 142784 160916 150224  37629 206439 186699 153814 271225
-  52515 149549 195297 186588 230235 193899 127984   1613  62731 166647
- 221113  75519 210620 134745 119883 237945 185928 176908   1801 131719]</t>
+  52515 149549 195297 186588 230235 193899 127984   1613  62731 221113
+ 166647  75519 210620 134745 119883 237945 185928 176908   1801 131719]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1692,7 +1692,7 @@
  142885  58973 120981  30638 235413 145265 236185 159003 165863  61511
  113701 183157 266351 141032 167270  84543 276073 200294 217572 116817
  204727 173113 173109 276701  53756 280201 269412 239439 222323 254740
-  52515  14867 207042 151321  78626 108973  26278 249406 237510 217668
+  52515  14867 207042 151321  78626 108973 249406  26278 237510 217668
  279910 250693 203245 216288 192874 213919 205982  34240 207312 101233
   12376 213588 233760 237945 277566 197840 106998 259433 214692 211590]</t>
         </is>
@@ -1704,7 +1704,7 @@
  16.1467 16.147  16.1473 16.1474 16.1474 16.1474 16.1474 16.1476 16.1477
  16.1481 16.1482 16.1483 16.1486 16.1489 16.1492 16.1492 16.1495 16.1496
  16.1497 16.15   16.15   16.1501 16.1501 16.1502 16.1503 16.1504 16.1505
- 16.1505 16.1505 16.1506 16.1509 16.1509 16.151  16.1511 16.1511 16.1513
+ 16.1505 16.1505 16.1506 16.1508 16.1509 16.151  16.1511 16.1511 16.1513
  16.1514 16.1515 16.1516 16.1519 16.1519 16.1519 16.152  16.152  16.1522
  16.1523 16.1526 16.1526 16.1527 16.1529 16.153  16.153  16.1531 16.1531
  16.1532 16.1532 16.1534 16.1537 16.1537 16.1537 16.1537 16.1538 16.1539
@@ -1762,7 +1762,7 @@
  223864 142450 132139  82855 153971 103165  52511 224585 281184 183931
   10606  42394 259640  74015   8912 162054 177356 230930 191496 225198
  201229 199364 134569 213698  42997 183277 280308 148355 200879 145208
- 272676 115960  11180 113284  90948 194842  17755 223305  77507 158353
+ 272676 115960  11180 113284 194842  90948  17755 223305  77507 158353
  208310   6038 280331 281570 158183  90677 152941  90670 120020  78839
   22648 131797 125739  64191 220697  65239 149391 172669 226412 154959]</t>
         </is>
@@ -2800,7 +2800,7 @@
           <t>[13.2693 13.2745 13.2758 13.279  13.2795 13.2805 13.2813 13.2833 13.2838
  13.2845 13.2845 13.2845 13.2849 13.2865 13.2873 13.2877 13.288  13.2882
  13.2889 13.2889 13.2894 13.2896 13.2897 13.2897 13.2901 13.2908 13.2908
- 13.2915 13.2915 13.2915 13.2918 13.2929 13.2939 13.294  13.2942 13.2945
+ 13.2915 13.2915 13.2915 13.2918 13.2929 13.2939 13.2939 13.2942 13.2945
  13.2945 13.2953 13.2953 13.296  13.2961 13.2966 13.2967 13.2967 13.2968
  13.297  13.297  13.2973 13.2975 13.2975 13.2979 13.2979 13.2982 13.2983
  13.2984 13.2984 13.2985 13.2986 13.2988 13.2988 13.299  13.2991 13.2991
@@ -2873,7 +2873,7 @@
  9.7193 9.7194 9.7198 9.7201 9.7202 9.7205 9.7207 9.7207 9.7209 9.7213
  9.7213 9.7214 9.7215 9.7216 9.7216 9.7217 9.7218 9.7221 9.7222 9.7223
  9.7225 9.7226 9.723  9.7231 9.7231 9.7234 9.7234 9.7236 9.7236 9.7237
- 9.7237 9.7237 9.7239 9.724  9.7242 9.7244 9.7245 9.7246 9.7247 9.7247
+ 9.7237 9.7237 9.7239 9.724  9.7242 9.7244 9.7245 9.7246 9.7246 9.7247
  9.7248 9.7249 9.725  9.7251 9.7251 9.7251 9.7251 9.7252 9.7252 9.7253
  9.7254 9.7255 9.7257 9.7257 9.7257 9.7258 9.7259 9.7259 9.726  9.726
  9.726  9.7261 9.7264 9.7264 9.7264 9.7265 9.7265 9.7266 9.7266 9.7267]</t>
@@ -3068,7 +3068,7 @@
  277075 198397 218594 280483 247960 219787 191441 235296  18186 285114
  207460  25490 195357 145129 254413 213825 217976  81202 132233    383
  267589 190555 278368 281174  66244 157459 205502  13940 249965   3708
-  82966 271531 140499 143873  55218  97738 237549 246225 269596 163475
+  82966 271531 140499 143873  55218  97738 237549 269596 246225 163475
  135068 105250  68133 146041 200182 141742 265141   1396 173068 269781
  249560 214978 142603 141173 149998 216097 168870  33254  26733 129873]</t>
         </is>
@@ -3731,7 +3731,7 @@
  11.6019 11.602  11.6022 11.6023 11.6024 11.603  11.6035 11.6036 11.6039
  11.6039 11.6041 11.6049 11.605  11.6051 11.6053 11.6055 11.6064 11.6064
  11.6065 11.6065 11.6068 11.6072 11.6075 11.6077 11.6078 11.6079 11.608
- 11.6081 11.6084 11.6087 11.609  11.6092 11.6096 11.6096 11.61   11.6102
+ 11.6081 11.6084 11.6087 11.609  11.6092 11.6096 11.6096 11.6101 11.6102
  11.6103 11.6103 11.6103 11.6106 11.6111 11.6116 11.6117 11.6117 11.6117
  11.612  11.6121 11.6125 11.6126 11.6126 11.6126 11.6129 11.6129 11.6132
  11.6133 11.6142 11.6145 11.6145 11.6146 11.6147 11.6149 11.6153 11.6153
@@ -3982,8 +3982,8 @@
         <is>
           <t>[ 22175 245759 108361 156851  83064 197976 205071 139448 163609 280296
  138566 106705 272480 141812  30173  22260 103716  86626 225759  50600
-  33877 142098 273727 201131 271782 185865 158079 168559 108698  16973
- 251187 126388 217337 138748  64230  88322 115413  92584 192017  74688
+  33877 142098 273727 201131 271782 185865 158079 168559 108698 251187
+  16973 126388 217337 138748  64230  88322 115413  92584 192017  74688
  215055  27323 204354 203970 163241  91580 276819  50180 274510  68167
  136383 104489 237071  53860 199266 266384 110375 127958 185329 201378
  127189 247065 192426 195222   2932  82901 111681 130876  62432  52850
@@ -3999,7 +3999,7 @@
  15.3721 15.3725 15.3729 15.3729 15.3729 15.373  15.3732 15.3734 15.3735
  15.3736 15.3737 15.3737 15.3737 15.374  15.3741 15.3742 15.3743 15.3744
  15.3747 15.3748 15.3749 15.375  15.3751 15.3752 15.3753 15.3753 15.3755
- 15.3756 15.3758 15.3758 15.376  15.3762 15.3763 15.3764 15.3765 15.3765
+ 15.3756 15.3758 15.3758 15.3761 15.3762 15.3763 15.3764 15.3765 15.3765
  15.3765 15.3765 15.3766 15.3766 15.3766 15.377  15.3771 15.3773 15.3776
  15.3776 15.3777 15.3777 15.3778 15.3778 15.3778 15.378  15.3783 15.3784
  15.3784 15.3784 15.3784 15.3786 15.3787 15.3788 15.3788 15.3788 15.3788
@@ -4334,8 +4334,8 @@
   77025 179187  77504 201131 273727 140710 251187 140720  33877  61773
  156851 218106  50600 231990 130876 272480  86626 104576 274510 232078
  127995 142603  43029 225759 280296 207507 140192 276819 192019 162440
-   2932 266384  64230 127189  92584 186258  52850 204354 140480  82901
- 228340  62432 192017 104696  89407 229645 111681 195222 112773 202396
+   2932 266384  64230 127189  92584 186258  52850 204354 140480 228340
+  82901  62432 192017 104696  89407 229645 111681 195222 112773 202396
  249321 126388 143891 161181 265437  98990  88322 250599 215055  41399
  264465 138748  70519 185048  61659 141812 277559  86845 245502 103716]</t>
         </is>
@@ -4403,8 +4403,8 @@
  239875 254415 142940  82344 149944 266566 229126 146442  98336   9004
  200229 275939 191070 156718 242144 243026 100655 124822 209757 271599
  170306 228591 243101 244142  14099 172938   2468 271754 242835 142943
- 264281 163357 236141 133519 219213 216657 177917 148280 159281 162784
- 247612 203185 200856 157330 271702 231835 131679 111308 167525  27643
+ 264281 163357 236141 133519 219213 216657 177917 148280 159281 247612
+ 162784 203185 200856 157330 271702 231835 131679 111308 167525  27643
  153347 220564 157642 226893  38343 257145 154924 218697 158477 154922]</t>
         </is>
       </c>
@@ -4434,7 +4434,7 @@
           <t>[209465 178900 273055 242379 238886 273428 133121 140828  30338 108556
  177161  12731 102279 139893 251552 225363 234026 244331  90092  34485
  194668 179454  12819 215388 277900 158126 233355  13339 232069 202633
-  23210 108364 162220 128181 201492 251960 235296 201490  85552  63273
+  23210 108364 128181 162220 201492 251960 235296 201490  85552  63273
  183694 229639  21882  28191 247179  83053 256471  16349 235048 250667
  111336 197267 109971 245451 260417 218527  53860  14397 215055 280193
   51352 276973  13247  90079  73537 275408 100713  41487 248131 176062
@@ -4743,8 +4743,8 @@
  269262 276771  68015 154352 154327 175553 180924 103889 180420 175564
  180523 223848 182127  65616 125036  32250  31338 126868  28829 168848
   16354 201518 154370 106829 268136 181783 197490 272605  72460 106282
- 277962 200505  97133  38451 104207 180763 144582 275495 153470 179814
- 205164  70946 168661 146391 232544 212914 282893 274958 144517 114434
+ 277962 200505  97133  38451 104207 180763 144582 275495 153470 205164
+ 179814  70946 168661 146391 232544 212914 282893 274958 144517 114434
   43205 153466 231354  79522 190609  60446 154269  75916 114435  20466
  143174   3272 223063 176375 266867 191530 182142 173545  98099 195270
   73105 129662 124060 206854  45481  88345 180770  79448 154346 138295]</t>
@@ -4815,7 +4815,7 @@
  268270  53431 131025 186705 282543 238140 119041 273611  91469 222159
  150131  84608 103601 233367  51982 241086 130797  94562  94609 158228
  181861 244405  84612 213268 117130 196167 151416 119558 255230 190828
- 230712  92092 190787 255035 139201  84730 160374 166164  83739 203175]</t>
+ 230712  92092 190787 255035 139201  84730 160374 166164 203175  83739]</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4985,7 +4985,7 @@
  143989 129016   4560 115384  83759  40272 169116 223141 266149 208533
  268268 159910 150335 213682 251090 115325 222380 241246  24452 239349
  114114  59354 266795 128359  47295   8190 241763 208775 259865  97641
- 258803 244932 168744 251520 187943 110755 224023  83121 138234 204844
+ 258803 244932 251520 168744 187943 110755 224023  83121 138234 204844
  252249 265858 265489 191434 252377 194141 185237   8168  26339  78021]</t>
         </is>
       </c>
@@ -5261,7 +5261,7 @@
   43348  65994  79002 245765 246704 205060 217430 211207 108477 251139
  275872  74650 160830 100649 281602  20385  99129 262938 190773 139551
   90929 240875 222959 230158 174559 216309 140863  82617 174419  75552
- 270113 258352  64317  30525 280367 127232 111830 239106  27491 100917
+ 270113 258352  64317  30525 280367 127232 111830 239106 100917  27491
   39670 265318 181729 155795 254787 231456 172567   1442   4780 267666]</t>
         </is>
       </c>
@@ -5737,7 +5737,7 @@
  264458 200311  54516  64613  17271 279531 172669 116216 210601 235589
  125478  44733 155823  78957  61136  83472 131801 162114 103796 120312
  264723 258495  28676  50365  72094  77900  15470 137221 131797  43089
- 145827  53889  61394  80500 267949 279549 264898 258714  65822 210938
+ 145827  53889  61394  80500 267949 279549 264898 258714 210938  65822
   15703 270490 255102 277177 158511 248095 145402 193621  13840 238306
  145629 240337 202917 161432  28745 230971  97709 170519 252968  73871
   50561 152166 263092 162054  78295 231205 145527 261494 228547 272283]</t>
@@ -5805,7 +5805,7 @@
   15703  15619 151259 265937  82461  17935 131819 194141 204582  44868
  145527  82855  84162 270490  71516 151888  61394 137596 132480 243317
  123744  84932  44733 216676 218798 147871 131797  72094 146873 211571
- 162054 140070 169116 270510 151431  98274 199800 150335 151943  42047
+ 162054 140070 169116 270510 151431 199800  98274 150335 151943  42047
  179931 272283  70463  88589 106551 262054 222152 147726 145827 128359
  228547  40993 243706 181387 150836 183741 204860  11540 217637 187184
  127586 236139 108086  54643 257369 123764 218576 121669 204854 123927
@@ -5943,7 +5943,7 @@
  192124  36071  62432 184214 199523 236406 140480  86626  82964 202396
  277172 273727  32779 101961 238524 127219 158079  73406  41399  59084
   63458 163609 225033 178408 245604 132752  92463 111588 225759 140476
- 111541  83176 132756 107466 138566  92584 229645 185329  78279 140529
+ 111541  83176 132756 107466  92584 138566 229645 185329  78279 140529
  130838 140919 215670  52850  86845 127198 236007 277662 232667   1662
   89407   8645 196103 163940 126388  92386  44012 127955  86970 196177
   22908 176811 197085 275639 149290 220603  50600 197086 216323 252648
@@ -5961,7 +5961,7 @@
  15.874  15.8741 15.8741 15.8745 15.8746 15.8747 15.8747 15.8748 15.8748
  15.8749 15.8749 15.8749 15.8749 15.875  15.8751 15.8752 15.8752 15.8752
  15.8753 15.8754 15.8755 15.8755 15.8757 15.8757 15.8758 15.8758 15.8758
- 15.8759 15.876  15.8761 15.8762 15.8764 15.8766 15.8766 15.8768 15.8769
+ 15.8759 15.876  15.876  15.8762 15.8764 15.8766 15.8767 15.8768 15.8769
  15.8773 15.8773 15.8775 15.8775 15.8778 15.8779 15.8779 15.878  15.8781
  15.8781 15.8781 15.8783 15.8783 15.8784 15.8784 15.8784 15.8785 15.8785
  15.8786]</t>
@@ -6253,7 +6253,7 @@
           <t>[229645 228340 225759 158126 275940  43029 192019 194668  91580  27475
  245922  92584 274510 176062 266420  23210 215055 207507  59084  12731
  107466 170929 232069 138566  41399 180117  63458 203217 140480 127995
-  12781  82961 201490 266384  77025 127219 192293  14144 120943 158860
+  12781  82961 201490 266384  77025 127219 192293  14144 158860 120943
  195697 133501  90092 231143  22175 172990 192017 184214 247179  53860
   30338 100713 264465 112773    443  82964  30882  64230 134811 233355
  138748 106705 108364   1662 203218 170400  83389 158038  22260 200679
@@ -6343,7 +6343,7 @@
  22.707  22.707  22.7071 22.7072 22.7073 22.7076 22.7077 22.7077 22.7077
  22.7078 22.7078 22.7079 22.7079 22.7079 22.708  22.7081 22.7081 22.7081
  22.7082 22.7082 22.7082 22.7082 22.7083 22.7086 22.7086 22.7086 22.7087
- 22.7087 22.7088 22.7088 22.709  22.709  22.7091 22.7092 22.7092 22.7092
+ 22.7087 22.7088 22.7089 22.709  22.709  22.7091 22.7092 22.7092 22.7092
  22.7093 22.7094 22.7094 22.7094 22.7095 22.7095 22.7095 22.7095 22.7095
  22.7095]</t>
         </is>
@@ -6360,7 +6360,7 @@
  199266 201490 204354 185865 201378 158126  82983 124558 217337  61053
  246890 260417  91580 156851 218993 140192  22260 201492 139893 106705
  229530  31714 158079 255328 122318  91505  43029  33877  92142 225759
- 158860 136383  80559  86385 218527  42967 126452 197976 110375 237071
+ 158860 136383  80559  86385 218527  42967 126452 197976 237071 110375
   92167  90092  89504 192019  12781 245759 140879  12731 251630 273428
   22237 199523 127995 203217  64230 201131 228340  53860 244664  99937
  140720 232926 283370  82901 194668 254495 126388 203970  86970  79252
@@ -6409,7 +6409,7 @@
  11.7437 11.744  11.746  11.7462 11.7472 11.7472 11.7474 11.7476 11.7478
  11.7481 11.7481 11.7483 11.7484 11.7485 11.7486 11.7491 11.7491 11.7492
  11.7493 11.7498 11.7501 11.7502 11.751  11.7516 11.7517 11.7519 11.7519
- 11.7522 11.7524 11.7526 11.753  11.753  11.753  11.7532 11.7532 11.7535
+ 11.7522 11.7524 11.7526 11.7529 11.753  11.753  11.7532 11.7532 11.7535
  11.7536 11.7539 11.754  11.7541 11.7542 11.7548 11.7549 11.7551 11.7551
  11.7552 11.7554 11.7555 11.7555 11.756  11.756  11.7561 11.7561 11.7561
  11.7562 11.7563 11.7566 11.7566 11.7568 11.7569 11.7569 11.7571 11.7572
@@ -6469,7 +6469,7 @@
  133119 263087 230049 136825 215692 187983  86266 245861 120086 217217
   64529  35534 234012  25893   3022 242095 234807 160850 138764 251646
  266147 135271  68513 120102  54967 171647  18875 255379 186149 220797
-  54512 184201 252186 109851 213031  77967 265625  41672 231346 254064]</t>
+  54512 184201 252186 109851 213031  77967 265625 231346  41672 254064]</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -6567,9 +6567,9 @@
   88287 135645 148799 186441 269661 234508 239905 134126 132725 242719
  201008 121092 170355 280839  51515 273565  35060 168425 166409 229764
  133106 135628 159006 145920  85698 159630 228029 260349  43448 273369
- 278545  88010 211501  32533 200468  88013 154235 202932 152858  51792
+ 278545  88010 211501  32533 200468 154235  88013 202932 152858  51792
   84363  69886 255799 194472 205463  89464   1769 241500 194499 263099
- 192457 141500 146734  69608 266575 112960 275841  25439 160502  75660
+ 141500 192457 146734  69608 266575 112960 275841  25439 160502  75660
  137443 106938 215842 103754  89394 266835 233215 267273 146504 151975
  192491  88486 135640 233585  67037 180435 268335 256647 270336 267015
  183390 242449 107027  64093 197628 160016 259984 120985  86266  97804]</t>
@@ -6603,7 +6603,7 @@
  143116 251642 142294 136936  26398 117232 254990  12570  45631  99607
  252920 111122 160857  59078 245754 106947 229992 255779   6621  32528
   56432  35060 275466  89297 261600   6213 220848  71255  83096 252815
- 216080 266251 139165 103262 194628   5778 254934 207741 191156  27359
+ 216080 266251 139165 103262 194628 254934   5778 207741 191156  27359
  106819 165333 170442 138880  53886 215692 110354  33888  63269 256559
  275056  64325  54146 257525 237041 123379  19497 255717 279585  21791
  184700 251182  83624 233056  86323 244108 170404 225527  74504 125770
@@ -6652,7 +6652,7 @@
  13.5798 13.5804 13.5805 13.5805 13.5807 13.581  13.581  13.5812 13.5814
  13.5815 13.5817 13.582  13.5821 13.5822 13.5823 13.5823 13.5823 13.5823
  13.5824 13.5826 13.5826 13.5826 13.5826 13.5832 13.5832 13.5832 13.5833
- 13.5834 13.5835 13.5836 13.5837 13.5838 13.5838 13.5838 13.5839 13.5839
+ 13.5834 13.5836 13.5836 13.5837 13.5838 13.5838 13.5838 13.5839 13.5839
  13.584  13.584  13.5841 13.5842 13.5843 13.5844 13.5844 13.5844 13.5845
  13.5846 13.5846 13.5847 13.5848 13.5848 13.5848 13.5848 13.5849 13.585
  13.5851 13.5851 13.5851 13.5852 13.5852 13.5853 13.5854 13.5854 13.5854
@@ -6815,7 +6815,7 @@
  158473 277521 197267 192286 266341 215055 237693  53860 128181 111336
  142979  13339 207186 197857  83053 131521  21882  90092 177161 245922
   28191 255778 232069 259718  23210  89208  82808  30338 231143 175774
- 280690 164784 238886 178900 236750  12781 100713 203817  98990 139893
+ 280690 164784 238886 178900 236750  12781 203817 100713  98990 139893
  136383 192293 271933 105820 117463 220849 264465 218527  83027 248131
  273055 126452 108364  90909  97968 271009 108365 235307 114271  33941]</t>
         </is>
@@ -6829,7 +6829,7 @@
  13.1277 13.1278 13.1279 13.128  13.1282 13.1283 13.1284 13.1285 13.1286
  13.1287 13.1288 13.129  13.129  13.1291 13.1293 13.1293 13.1293 13.1294
  13.1294 13.1294 13.1294 13.1296 13.1296 13.1298 13.1298 13.1298 13.1298
- 13.13   13.1302 13.1303 13.1306 13.1308 13.1309 13.131  13.131  13.1311
+ 13.13   13.1301 13.1303 13.1306 13.1308 13.1309 13.131  13.131  13.1311
  13.1311 13.1316 13.1319 13.132  13.1322 13.1322 13.1323 13.1324 13.1324
  13.1325 13.1326 13.1327 13.1328 13.1329 13.1331 13.1332 13.1334 13.1334
  13.1335 13.1336 13.1336 13.1336 13.1338 13.134  13.134  13.1341 13.1343
@@ -6919,7 +6919,7 @@
  146868  11488 209349 141110  38718  50198 252294 171980  64473 171600
  146118  30065 244019 173319  41524 203873 238516 200251  84512 151537
   81661  57864 281808 202559 192389 113320  68058  98240 122923 184708
- 101081 207429 144562 179324 144993 113160 200293  18361 165490 144817
+ 207429 101081 144562 179324 144993 113160 200293  18361 165490 144817
   45065  25453  10012 173767 207430 237404 123288 217118  89165  33551]</t>
         </is>
       </c>
@@ -6965,7 +6965,7 @@
  8.1881 8.1881 8.1883 8.1886 8.189  8.189  8.1894 8.1895 8.1896 8.1898
  8.1899 8.19   8.19   8.1901 8.1902 8.1903 8.1908 8.1911 8.1912 8.1917
  8.1918 8.192  8.1923 8.1923 8.1925 8.1926 8.1926 8.1928 8.193  8.193
- 8.1933 8.1935 8.1935 8.1937 8.1939 8.1939 8.194  8.1941 8.1944 8.1946
+ 8.1933 8.1935 8.1935 8.1937 8.1938 8.1939 8.194  8.1941 8.1944 8.1946
  8.1947 8.1947 8.1948 8.195  8.1951 8.1956 8.1957 8.1958 8.1958 8.196
  8.196  8.1963 8.1965 8.1966 8.1966 8.1967 8.1967 8.1968 8.1969 8.1969
  8.197  8.1973 8.1974 8.1974 8.1975 8.1975 8.1975 8.1975 8.1977 8.1978
@@ -7014,7 +7014,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>[199287 214435 180944 164499 280414 239279 134009 168137  64682 156943
+          <t>[199287 214435 180944 164499 280414 239279 134009  64682 168137 156943
   87867 192468 130384 284739  90020 109294 270052 246717 175866 173068
  243275 249560 277130  45406 131356 225860  49019 101478  79884 189538
  274802 103642 162269  12537 157852  35721 152726 112754  87999 108582
@@ -7057,8 +7057,8 @@
  141020 269676 219932 181622 196390 235804 160154 154017 176132 217244
   30457 171581 274123  61682 121976  76580 257862 146098 251027 134620
  234133 221020 254510 222067  99404  36554 242172 247445  35865  47300
-  57902 229181  33755  40950  74636  18769 261788  25991 168424 149342
- 184731 229293  28829 224585 125270 150726 129033  26420 249290 180079]</t>
+  57902 229181  33755  40950  74636  18769 261788  25991 168424 184731
+ 149342 229293  28829 224585 125270 150726 129033  26420 249290 180079]</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7396,7 +7396,7 @@
           <t>[235589  70533 155806  61136 243523 193621 186398  91348 198285 231205
  235587 252826 261178 187938 264723  83586  54516 137221 158511  78295
  229047  95108 240148 167801 250290 193418  97709 167160  78957 272707
-  81713 252968 119930 186566 134670 213561 278421 127065 172261 263924
+  81713 252968 119930 186566 213561 134670 278421 127065 172261 263924
  246741  83554 265559 261494  59273 197635  91825 279602 234680 263700
  274890 166085 107487  58592 194177 120507 115682  61830 162114 266559
  214106 207466 248095 176605  78416 133331 282402  53066 277177 124643
@@ -7430,7 +7430,7 @@
         <is>
           <t>[203154  77890 262005 102712  80997 152132 128100 132965  97949 127732
  245954  84194 229826 233673  62566 214285   7061 209589 257178 197925
- 262111  92064 251898 189595  62565 258818 139599 260166 209727 200962
+ 262111  92064 251898 189595 258818  62565 139599 260166 209727 200962
  203087 232101 201547 136519 260441  42715  54260 133190 177718 183385
  264981  65394 239345 181214 148541 206721 255456 211838 143863 175698
    7120  72902  86748 220161 261167 265237  60997 210581 102716  87475
@@ -7539,7 +7539,7 @@
  267156 157342 181560 145115  60434 103485  97589 150381 242924 217891
   76060 136254 107064  48611 211524 138644 193064 189968 204139 200549
   71649 116543 178937  90030 122712 203552 105331 215900 210822  34561
- 163791 138628  80527 248071  19661 247129  38235 155770 164890  51792
+ 163791 138628  80527 248071  19661 247129 155770  38235 164890  51792
  170852  12144 272839 248070  48643 207720 203152   4007 159642 161935
  172487 166289 219104 185387 121948 268335 248847 218447 238227 269555
  267273 127457 151021 238566  89464 211140 110766  13673 267015 136868]</t>
@@ -7675,7 +7675,7 @@
  152639 195616 144321 258230 186566 225349 207282  34104 274818 256253
   86649 120001 132091 263393 124372 160660  16009  30308  73871 144255
  217503 158183 278991 261820 200311  49039  60431 266059 255944 253253
- 153971 260935 266575 145755 238279 267949  13879 137244 264412 262555
+ 260935 153971 266575 145755 238279 267949  13879 137244 264412 262555
   29749 213806  73833  39337 251767 264458  47383 257430 264754 140336
  258992 211768  75289 263806 149104 263348  63656  43700  54432 261137
  260830 156648  55775 125772 117702 145629  18073 198325  73151  16011
@@ -7685,7 +7685,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>[8.808  8.8123 8.8146 8.8169 8.8181 8.819  8.8201 8.8216 8.8216 8.8217
+          <t>[8.808  8.8124 8.8146 8.8169 8.8181 8.819  8.8201 8.8216 8.8216 8.8217
  8.8218 8.8219 8.8222 8.8228 8.8228 8.8232 8.8234 8.8234 8.8244 8.8245
  8.8252 8.8259 8.8267 8.8267 8.827  8.8272 8.8274 8.8277 8.8278 8.8279
  8.828  8.828  8.8285 8.8289 8.8289 8.8289 8.8291 8.8293 8.8295 8.8297
@@ -7721,7 +7721,7 @@
           <t>[6.462  6.4639 6.4648 6.465  6.4656 6.4656 6.4662 6.4666 6.4672 6.4673
  6.4678 6.4681 6.4686 6.4686 6.4687 6.4692 6.4694 6.4698 6.4704 6.4711
  6.4711 6.4714 6.4717 6.4718 6.4721 6.4722 6.4728 6.4731 6.4732 6.4732
- 6.4733 6.4734 6.4735 6.4735 6.4737 6.4738 6.4739 6.4739 6.4741 6.4743
+ 6.4734 6.4734 6.4735 6.4735 6.4737 6.4738 6.4739 6.4739 6.4741 6.4743
  6.4743 6.4744 6.4744 6.4745 6.4745 6.4746 6.4747 6.4747 6.4748 6.4751
  6.4751 6.4752 6.4756 6.4756 6.476  6.4767 6.477  6.4771 6.4771 6.4774
  6.4774 6.4777 6.4777 6.4777 6.4778 6.4779 6.4779 6.4779 6.4782 6.4782
@@ -7755,7 +7755,7 @@
  15.0942 15.0948 15.095  15.0951 15.0955 15.0955 15.0957 15.0958 15.0958
  15.0959 15.0961 15.0963 15.0963 15.0963 15.0964 15.0964 15.0967 15.0968
  15.0969 15.0969 15.097  15.0971 15.0971 15.0971 15.0972 15.0973 15.0973
- 15.0973 15.0973 15.0974 15.0975 15.0976 15.0977 15.0977 15.0979 15.098
+ 15.0973 15.0973 15.0974 15.0975 15.0976 15.0976 15.0977 15.0979 15.098
  15.0982 15.0982 15.0982 15.0982 15.0983 15.0983 15.0983 15.0985 15.0987
  15.0987 15.0987 15.0988 15.0988 15.0991 15.0991 15.0991 15.0992 15.0993
  15.0993 15.0993 15.0994 15.0994 15.0994 15.0996 15.0997 15.0997 15.1002
@@ -7849,7 +7849,7 @@
  195576  62908 213250  74999  28803 165252 167656 239676  16225  91388
   28582 195589 191017 165229 225589 106630 104154 282692  57658 250751
  150300 270561 142918 195206  58642 264164 173821 165564  30649 159372
-  60610 229741 231602 188667 271614 235996 179172 160620 189932 185697]</t>
+  60610 231602 229741 188667 271614 235996 179172 160620 189932 185697]</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -7919,7 +7919,7 @@
  195106 122906  69569 172144  23819 177652 124513 159540  58039  28865
  145251  42476 160172 274992 127460 200169 198569  20361 186868   9732
   84153 229208 246961 177534 179041 125405  75895 217393 173096 227675
- 110755 271608   8065 185132  27277   2354 244239 163359 222087  48726]</t>
+ 110755 271608   8065 185132  27277   2354 244239 222087 163359  48726]</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -7946,7 +7946,7 @@
       <c r="B220" t="inlineStr">
         <is>
           <t>[181203 108483 257284  91879 214435  15570 274802  77228 284739 164499
- 122452 134009 255276  54674 147669  64682 188548 151442  99712 102609
+ 122452 134009 255276  54674 147669  64682 188548 151442 102609  99712
  211725  87999 157852 272753 192468 211404  57245  69262 231377 189538
  172745 101478 151517 202673  90020 159582 109998 276810  48660 152726
   46849 284286 267736 269573 218096 246487 199557  19098 128090 121776
@@ -7985,7 +7985,7 @@
  161642  23382  76786 207213 236838 114057 126403 249152 215498 139528
  283346 248535 120811   9073 133713 120166  85417  24702  51357 166155
  101858  13147 101431 261750 200642  21546 125491  36571 219860 201219
- 120160 239728  91815 195601 201970  33383 131890  32858  29469 250873
+ 120160 239728  91815 195601 201970  33383  32858 131890  29469 250873
  189289  90757 185525 277429  12102 254528  86085  18935 273102 118564
   87063  25917 247496 239075 273818  18923 238134 132837 160562 241126
  251001 262719   5558 280585 206776 281078  41576 116253   9502 238969
@@ -8056,8 +8056,8 @@
  168838 196103  48056 192486 142076 167015  57472  89814 130060 236406
  192527  86200 211749 105703 172334 111588 189859 123298 220603 228661
  137030 163940  22163 277662  92386 121480 215670  33339 272978 225749
-   8645  50514 251011 205029 241751  77671 157456 245604  72747  61773
- 189245 171969  19288 245361 162943 272465  29931 120731 168839 111873
+   8645  50514 251011 205029 241751  77671 157456 245604  72747 189245
+  61773 171969  19288 245361 162943 272465  29931 120731 168839 111873
   44095 156462 232667   8627 196322  18952   7994  97738 252648 272488
  202396 137025 120414 241472 176195 246649 193697  56763 278095 216610]</t>
         </is>
@@ -8174,7 +8174,7 @@
  13.1945 13.1946 13.1948 13.1948 13.1948 13.1953 13.1955 13.1955 13.1956
  13.1957 13.1958 13.1958 13.1958 13.1959 13.1963 13.1963 13.1964 13.1965
  13.1967 13.1967 13.1968 13.1968 13.197  13.1971 13.1971 13.1971 13.1972
- 13.1972 13.1973 13.1973 13.1977 13.1978 13.1979 13.1979 13.198  13.1982
+ 13.1972 13.1973 13.1973 13.1977 13.1978 13.1978 13.1979 13.198  13.1982
  13.1983 13.1984 13.1984 13.1984 13.1985 13.1988 13.1988 13.1988 13.1991
  13.1994]</t>
         </is>
@@ -8340,7 +8340,7 @@
  14.5556 14.5562 14.5575 14.5576 14.5579 14.558  14.5583 14.5591 14.5595
  14.5602 14.5603 14.5607 14.5614 14.562  14.5627 14.5629 14.5629 14.5635
  14.5644 14.5645 14.5646 14.5657 14.566  14.5663 14.5664 14.5664 14.5665
- 14.5669 14.567  14.567  14.5672 14.5681 14.5681 14.5684 14.5684 14.5684
+ 14.5669 14.567  14.567  14.5672 14.5681 14.5681 14.5684 14.5684 14.5685
  14.5686 14.5686 14.5689 14.569  14.5691 14.5696 14.5698 14.5699 14.57
  14.57   14.5701 14.5703 14.5705 14.5706 14.5707 14.5708 14.571  14.5712
  14.5712 14.5712 14.5712 14.5713 14.5713 14.5715 14.5716 14.5718 14.572
@@ -8442,7 +8442,7 @@
  17.1501 17.1501 17.1502 17.1503 17.1503 17.1505 17.1507 17.1511 17.1512
  17.1513 17.1513 17.152  17.1521 17.1525 17.1527 17.1528 17.1529 17.1529
  17.1532 17.1532 17.1533 17.1537 17.1538 17.1542 17.1543 17.1545 17.1545
- 17.1549 17.155  17.155  17.1555 17.1559 17.156  17.1564 17.1566 17.1566
+ 17.1549 17.1549 17.155  17.1555 17.1559 17.156  17.1564 17.1566 17.1566
  17.1571 17.1571 17.1572 17.1575 17.1576 17.1577 17.1577 17.1578 17.1578
  17.1578 17.1579 17.1579 17.158  17.1581 17.1581 17.1581 17.1582 17.1584
  17.1584 17.1586 17.1588 17.1589 17.1589 17.159  17.1593 17.1596 17.1597
@@ -8722,7 +8722,7 @@
  8.3689 8.369  8.3691 8.3691 8.3693 8.3693 8.3696 8.3699 8.37   8.37
  8.3702 8.3703 8.3704 8.3704 8.3704 8.3704 8.3704 8.3704 8.3706 8.3706
  8.3707 8.3707 8.3707 8.3708 8.3708 8.3709 8.371  8.371  8.371  8.3712
- 8.3713 8.3713 8.3714 8.3715 8.3716 8.3717 8.3717 8.3717 8.3718 8.3718
+ 8.3712 8.3713 8.3714 8.3715 8.3716 8.3717 8.3717 8.3717 8.3718 8.3718
  8.3719 8.3719 8.3719 8.372  8.372  8.372  8.3721 8.3721 8.3722 8.3722
  8.3723 8.3723 8.3724 8.3725 8.3726 8.3727 8.3727 8.3727 8.3728 8.3728]</t>
         </is>
@@ -8755,7 +8755,7 @@
  19.7797 19.7797 19.7799 19.7799 19.7804 19.7805 19.7806 19.7808 19.7811
  19.7813 19.7814 19.7815 19.7815 19.7817 19.7819 19.7819 19.782  19.782
  19.7822 19.7822 19.7823 19.7824 19.7826 19.7826 19.7826 19.7827 19.7828
- 19.7829 19.783  19.783  19.783  19.7831 19.7832 19.7832 19.7833 19.7833
+ 19.7829 19.783  19.783  19.783  19.7831 19.7832 19.7833 19.7833 19.7833
  19.7836 19.7839 19.7839 19.7839 19.784  19.7841 19.7842 19.7842 19.7843
  19.7843 19.7843 19.7844 19.7845 19.7847 19.7847 19.7848 19.7848 19.7848
  19.7849 19.7849 19.785  19.7851 19.7851 19.7852 19.7852 19.7853 19.7854
@@ -8809,7 +8809,7 @@
   50466 122276 271460 275280  63991 117134  12607 261239 224743 155258
  124772 175087 165137  34739  80500  51386 255141 157913 199859  64699
  106773 112673 275750 270289 253253 105271 118839  53631 263009 262836
- 128188  84551  41584   3416 197251 254550 216378 215777  36305 270144
+ 128188  84551  41584   3416 197251 254550 216378 215777 270144  36305
   50365 243376 198285 233213  46508 136150 120663 140028 114163 126706
  232725 106087 197255  61982 260396  54344 222845 218697 186954 252335]</t>
         </is>
@@ -8853,7 +8853,7 @@
  7.556  7.5563 7.5563 7.5564 7.5566 7.5571 7.5572 7.5574 7.5575 7.5578
  7.5579 7.5581 7.5581 7.5581 7.5583 7.5585 7.5587 7.5589 7.559  7.559
  7.5591 7.5591 7.5591 7.5595 7.56   7.5601 7.5601 7.5602 7.5603 7.5603
- 7.5607 7.5608 7.5608 7.5608 7.5609 7.5611 7.5612 7.5612 7.5617 7.5618
+ 7.5607 7.5607 7.5608 7.5608 7.5609 7.5611 7.5612 7.5612 7.5617 7.5618
  7.5619 7.5619 7.5621 7.5622 7.5623 7.5623 7.5626 7.5628 7.563  7.563
  7.5631 7.5631 7.5631 7.5633 7.5634 7.5634 7.5635 7.5636 7.5637 7.5637
  7.5637 7.5638 7.5639 7.564  7.564  7.5641 7.5642 7.5643 7.5643 7.5644
@@ -8936,7 +8936,7 @@
         <is>
           <t>[214863 277930 144851  59277  54269 130320  73486 189065 193493 249590
   13640 193991 166060  70673  42828 105842 141513  44589 155540 175206
- 192252 278567 183828 248399 232906 232108 249368 113108  64831  88179
+ 278567 192252 183828 248399 232906 232108 249368 113108  64831  88179
  122402 196677 222357 139011 144867  33360 141611 271763 217086  62107
  175076 275876  67747 265644  15440  65842  59162  78673 236503  58377
   33816  58675 269013 241603 187251  79019  58308 176974  85324  16288
@@ -8978,7 +8978,7 @@
  192419 197911  29869 246214 260301  62539 262555 148468 242523 245610
  155512 194630 239439  13811 233655 258244 254784 216257 265794  42625
  138910 255758  41355  78295 241537  48565 142895 150224 128800 277829
- 114067 219131  24304 281299 195297 212952 254804 161427  56616  50365]</t>
+ 114067 219131  24304 281299 195297 254804 212952 161427  56616  50365]</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -9127,7 +9127,7 @@
  16.8267 16.8271 16.8272 16.8273 16.8276 16.8277 16.8278 16.8279 16.828
  16.8281 16.8285 16.8291 16.8292 16.8293 16.8293 16.8293 16.8297 16.8302
  16.8303 16.8306 16.8306 16.8308 16.8312 16.8315 16.832  16.832  16.832
- 16.8322 16.8323 16.8323 16.8325 16.8328 16.8329 16.8329 16.8329 16.8331
+ 16.8322 16.8323 16.8323 16.8325 16.8328 16.8329 16.8329 16.833  16.8331
  16.8334 16.8334 16.8335 16.8336 16.8336 16.8339 16.8339 16.8343 16.8343
  16.8345 16.8346 16.8347 16.8347 16.8348 16.8349 16.8351 16.8351 16.8352
  16.8353 16.8355 16.8357 16.836  16.8363 16.8365 16.8366 16.8368 16.8368
@@ -9148,11 +9148,11 @@
  249499  52079  47189  38955 109323 182515 179680 177846 254407  22424
  266495  80269 182274 162554 182518  27560 107276 193830 112010 119116
  204589  96283 224754 185928 112000  38856 101081 116061 114089   1801
- 127091  54197 109519  18539 171239  39900  98254 191961 163473 168217
+ 127091 109519  54197  18539 171239  39900  98254 191961 163473 168217
   39898  35103  49173 283019 109268 231368 170113 263825  38386 238454
   55202 143295 246585 179682  59010 267257  12297 271882  20999 236534
   72823 199689  62746 199564 263772 182765 184881 270874  37778 105431
-  22319 151321  45193 116122 223828 177082  59011 268956 170115  66957
+  22319 151321  45193 116122 223828 177082 268956  59011 170115  66957
  130827  54796 258217 262740  32444 161044  28090 189737 203035   6102]</t>
         </is>
       </c>
@@ -9217,13 +9217,13 @@
           <t>[246829  32444 156079  85125 199689 183992 133550 132863 131655  74134
  247665 167531  32472 156996  20708  28719 210620 243713 238422  84378
  225727 223828 185928 271698 243133 165863 198878  72823 122814 152873
- 248981 255326 105826  27560  86460 154637 284634 246908 151901 144121
+ 248981 255326 105826  27560  86460 284634 154637 246908 151901 144121
  246585 114289 132317  55920 170252  20706 224594 207232 243836 126732
  270874 132337 249615 209834 276701 104197 194077 234963 168653 218262
  249406 206439 244235 279910 186787 155233 180940 217668  14557 251093
  264734 168063 227060   6102  69843 242546 127984  55917  92110  10012
-  44470 156388 176908 211954 194633 112000 160916  55923 271882  21971
- 253802 265794 265867  32301 159851  82026 253639 238733 158147 154989]</t>
+  44470 156388 176908 211954 194633 160916 112000  55923 271882  21971
+ 253802 265794 265867  32301 159851 253639  82026 238733 158147 154989]</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -9288,7 +9288,7 @@
  101039 215799  96489 155702 215327 167149  31140  33980  97422   2729
  212079  99662 208879 114561 266957 160367  87279 274228 183465 151416
  127971  57756  84551  59211 267755  66991 256429 208990 175295 189474
- 157972 229671  44306 261239 274563   4235 160374 109092 107225 190659
+ 157972 229671  44306 261239 274563   4235 160374 109092 190659 107225
   31005 130028 112673 248358  19006 135365 175922 147085   8694 197440
  210545  36305 117576  67860 236603 246125 158963 163613  28234 201351
  277945  65362  18998  14648 223453  31145 177155 209807 202542  86406
@@ -9334,7 +9334,7 @@
       <c r="C260" t="inlineStr">
         <is>
           <t>[10.5493 10.5499 10.5503 10.5507 10.5511 10.5511 10.5512 10.5515 10.5515
- 10.5517 10.5523 10.5525 10.5525 10.5526 10.5527 10.553  10.5535 10.5536
+ 10.5517 10.5523 10.5525 10.5525 10.5526 10.5528 10.553  10.5535 10.5536
  10.5536 10.5537 10.5538 10.5542 10.5544 10.5545 10.5546 10.5549 10.555
  10.5551 10.5552 10.5553 10.5558 10.556  10.5561 10.5562 10.5564 10.5566
  10.5569 10.5569 10.5571 10.5571 10.5573 10.5575 10.5575 10.5576 10.5579
@@ -9394,7 +9394,7 @@
   29633 145286  56360 234603 168481 150447 161882 226003 261384 254153
  233580 105957 263548  53474 181622 142723  56918  37623  78898 262930
   45154 168273  74483  33755 281874 253438  43363  40578 253109 128858
-  75937 207894 173402 230785  15562 236534  53476 259663 237722 236726
+  75937 207894 173402 230785  15562 236534 259663  53476 237722 236726
   67787  69363 241785 144671  88411 218654 110048  18769 182935 207748
  191324 137205 239517 176853  79220 263004 165902 268843 259402 169312
  240776 120794 173865 104060 181908 149795 121600 181830 252034 273581
@@ -9447,7 +9447,7 @@
  21.9843 21.9844 21.9846 21.9847 21.9848 21.9848 21.985  21.9851 21.9851
  21.9851 21.9853 21.9853 21.9854 21.9854 21.9854 21.9857 21.9858 21.9858
  21.9864 21.9865 21.9865 21.9866 21.9866 21.9868 21.9869 21.987  21.987
- 21.9872 21.9872 21.9873 21.9873 21.9875 21.9875 21.9878 21.9879 21.9879
+ 21.9872 21.9872 21.9873 21.9873 21.9874 21.9875 21.9878 21.9879 21.9879
  21.9879 21.9879 21.988  21.9881 21.9881 21.9881 21.9883 21.9885 21.9886
  21.9888]</t>
         </is>
@@ -9604,7 +9604,7 @@
  252547 151783  64191 145269 102605  92914 181203  83885 189538 264680
    6038 208171  83884 253702 121402  92556 137631 198325 233872  19098
   73745 154083  26095 208359 260830  57245 183465 145680 179259 225632
- 208230  82036 115848 268198 154017  77228 145502  63656 153735  90540
+ 208230  82036 268198 115848 154017  77228 145502  63656 153735  90540
  156186  62733 272582  11059 182687 109948 229268  15773 163870  26300
   27569  19103 149191 272615 175892 258717  43704 223726 238279 274872]</t>
         </is>
@@ -9776,7 +9776,7 @@
   60872  85880  54209 277515  75753  28719 200839  72319 115920 111283
   86014 110798 138767 147899 175209 274029 233183 189580 180701 104115
  240148 103541 103796   1769 267264 268116 134736 218651 217697 268014
-  54933  45560 105062  51430  72950 111821 167914 164806 272331  59099
+  54933  45560  51430 105062  72950 111821 167914 164806 272331  59099
  191846 204358  85831 248201 127065    137   5732 141213 267093  25439]</t>
         </is>
       </c>
@@ -9980,7 +9980,7 @@
  264229 172102  22188 166311  44842  93257 256128  66488 144452 198859
   73156 219299 168294 224649 124989 157738 193830 109306 203683 142723
   76386 177846 215089 254267 151339 100471  23113 251093  85090 218192
-  55917  57396 114089  56370 254262 195988   5854 211293 231719  98891
+  55917 114089  57396  56370 254262 195988   5854 211293 231719  98891
  168273 108086 267765 256269 279231 223430  13007  78898 171049 268281]</t>
         </is>
       </c>
@@ -10183,7 +10183,7 @@
  197359  99732 273136 259179 158807  37164 279692 252512 169090 159120
   21673 270226  61763  30933 201107 281808 249952 261963 266150 211448
  116219 186987 149421 270519 253527 193709 149145 278679  53474 197360
- 243340 235608 282001 102609  53275  64191  51947  67798  77921 148698]</t>
+ 243340 235608 282001 102609  53275  64191  51947  67798  77921 226803]</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -10228,7 +10228,7 @@
  10.8444 10.8452 10.8452 10.8457 10.8461 10.8463 10.8467 10.8467 10.8468
  10.8469 10.8469 10.8472 10.8474 10.8474 10.8474 10.8476 10.8477 10.8478
  10.8479 10.848  10.8482 10.8483 10.8484 10.8488 10.8491 10.8493 10.8494
- 10.8495 10.8495 10.8496 10.8497 10.8497 10.8503 10.8504 10.8505 10.8509
+ 10.8495 10.8495 10.8496 10.8497 10.8497 10.8504 10.8504 10.8505 10.8509
  10.8512 10.8514 10.8514 10.8515 10.8522 10.8526 10.8529 10.8531 10.8532
  10.8533 10.8535 10.8536 10.8537 10.8537 10.8537 10.8538 10.854  10.854
  10.854  10.8541 10.8541 10.8542 10.8542 10.8542 10.8543 10.8544 10.8545
@@ -10267,7 +10267,7 @@
  14.4558 14.4559 14.4562 14.4562 14.4563 14.4564 14.4565 14.4565 14.4565
  14.4567 14.457  14.4571 14.4571 14.4572 14.4573 14.4574 14.4574 14.4575
  14.4576 14.4576 14.4576 14.4579 14.4579 14.4583 14.4583 14.4584 14.4584
- 14.4585 14.4586 14.4586 14.4587 14.4588 14.4588 14.4588 14.4589 14.4589
+ 14.4585 14.4586 14.4586 14.4587 14.4587 14.4588 14.4588 14.4589 14.4589
  14.4589 14.459  14.459  14.459  14.459  14.4593 14.4594 14.4596 14.4597
  14.4598]</t>
         </is>
@@ -10422,7 +10422,7 @@
   92984 151096 104586  31755  31488 269318 261010 206459  24799 208107
  118857 205396 223775  61787 198397  13397 199564 246225 164078 135911
   28419 188868 151208 151321 222230 119247 153978  42765 157456 222287
- 159023 278941 277938 249676 205403 216097 143295 187494 182515  66759]</t>
+ 159023 277938 278941 249676 205403 216097 143295 187494 182515  66759]</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -10803,7 +10803,7 @@
   63089 276142 239745 156413  60613 144844  44398 116926 126085 223947
  148862  34040 233115 192659 190686 165638 214887 281280 209951 103689
  118153  76511  17588  62384 231736  67693  16187 276273 130030 142112
- 125047 188134 205979 130680 165157 203364 155279 113094 196380  31048]</t>
+ 125047 188134 205979 165157 130680 203364 155279 113094 196380  31048]</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -11040,7 +11040,7 @@
   44055 175657 231390  21899  80459 104129 220004 162582  80293  79215
   52466 120836 281211 184013 204377 214238  90469  34410 253444  62093
  143146 192942 227060 118340 241745 140132 242481 190689 116806 200373
- 229511 222110 132283 142784 277397  59574 232919 175675 214788  20708
+ 229511 222110 132283 277397 142784  59574 232919 175675 214788  20708
   24527 100641 146633 197326 256463 138771 172705 162583  92617 205753
  167077 176908 215675 148112  12681  64919 168653 182219 266830 206999]</t>
         </is>
@@ -11117,7 +11117,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>[21.8031 21.8072 21.8074 21.8098 21.8099 21.81   21.8112 21.8122 21.8125
+          <t>[21.8031 21.8072 21.8074 21.8098 21.81   21.81   21.8112 21.8122 21.8125
  21.8126 21.8127 21.8127 21.8131 21.8133 21.8133 21.8134 21.8137 21.8138
  21.8143 21.8145 21.8147 21.8148 21.815  21.8151 21.8153 21.8153 21.8154
  21.8155 21.8157 21.8157 21.8157 21.8159 21.816  21.8161 21.8161 21.8163
@@ -11348,7 +11348,7 @@
  202762  63849 150224 189669 161060 253204  24304  73516 105053  71788
  245467 275978 139022 259044 252979 115206 176537 233630 245610 134745
  266703  48221  41971 202917 254257 114067  10606 116216 210601 155159
- 197911 106496 206721  69307 105371 257244  40951 203087 277829 241967
+ 197911 106496 206721  69307 257244 105371  40951 203087 277829 241967
   26278 255624 275287  89398 255102 255918  30091 183033 142895 128800
   54349  15849 264169 246214 106778 248811 242523 229623 167411 140336
  252035 142552 148413 208391 252057 187917  56308  52989 240809 254804
@@ -11483,7 +11483,7 @@
           <t>[127423 194177 238188 213561 112717 260655  56522 261178 270913 130325
  107487 128752 153892  48107 171704 257208 109935 220604 123643 254322
  208775 256804 111709 171334 187938 240801 171828 176898 135658  26095
-  50300 107694 264757  73785 166085 131325 239168   8185 220233 171555
+  50300 107694 264757  73785 166085 239168 131325   8185 220233 171555
  124188 214544 230841  35047 274890  78968  68163 144518 158179 147793
  272409  45128  51754   8190 161761 261145 229202  87066 111084  44841
  249095 239154 233932 259538 274108 265652 195448  17363  51170 101425
@@ -11565,7 +11565,7 @@
       <c r="C325" t="inlineStr">
         <is>
           <t>[13.0768 13.0768 13.0777 13.0781 13.0782 13.0787 13.0801 13.0801 13.0801
- 13.0802 13.0804 13.0805 13.081  13.0811 13.0814 13.0816 13.0819 13.0819
+ 13.0802 13.0804 13.0805 13.081  13.0811 13.0814 13.0815 13.0819 13.0819
  13.0821 13.0824 13.0826 13.0827 13.0832 13.0834 13.0835 13.0847 13.0848
  13.085  13.085  13.0852 13.0854 13.0854 13.0855 13.0859 13.086  13.086
  13.0862 13.0866 13.087  13.0871 13.0874 13.0876 13.0877 13.0879 13.0883
@@ -11586,14 +11586,14 @@
       <c r="B326" t="inlineStr">
         <is>
           <t>[111880 105103 235996 213249  40508 165390 180121 225589 199742  87500
- 168825 178587  65154 173866 173436 275987  16225  45035 213250 191016
+ 168825 178587  65154 173866 275987 173436  16225  45035 213250 191016
  115778 276866 220681 214000 214274 170089 136952  16064 240552  61873
  179150 159372 111861 173770  91388 239676 167656  97614 193678 143494
  234959 269556 176474 248132  52693 172962 165343 165627 236031 210118
  191017 173758 107938 202443 112461 202243 193677 195785 124916 178690
  134699 162817 127319 157280 173511   4546 270561 117533  98940 217311
  212699 130714  89300 269558 229741 163263 165405 106630 131335 236887
- 263449 174577 270087 177464 231602  88152 165345 172956 165586 165438
+ 263449 174577 270087 177464 231602 165345  88152 172956 165586 165438
  157142 137829 109951 160620 229649 228886 104737 176817 173171 122746]</t>
         </is>
       </c>
@@ -11657,10 +11657,10 @@
  247787 213111 281885 217125 196975 130071 145452   7132 205434 241481
  128380 182167 146584 268995  92917  70505 127112 276796 107652 161174
   19664  36566 217584 123334 234996  71303 233576  33069 266212 208365
- 157162 107025 222440  30430 214216  54568 274931 269573 243761 123468
+ 157162 222440 107025  30430 214216  54568 274931 269573 243761 123468
  119017 142340  45893 116934 120204 281808 197368 121515 193859 251781
  115684  74964 221432 209806 220332  84512  19798 171418 272777 222347
- 198468 125905 208115  49452 200293  67917 208107  26035 188623 229720]</t>
+ 198468 125905 208115  49452 200293 208107  67917  26035 188623 229720]</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -11780,7 +11780,7 @@
  22.8478 22.8478 22.8479 22.848  22.8481 22.8484 22.8484 22.8484 22.8485
  22.8485 22.8485 22.8486 22.8486 22.8486 22.8487 22.8488 22.8488 22.849
  22.849  22.8491 22.8491 22.8492 22.8493 22.8495 22.8495 22.8495 22.8496
- 22.8497 22.8497 22.8498 22.8499 22.85   22.8501 22.8503 22.8504 22.8504
+ 22.8497 22.8497 22.8498 22.8498 22.85   22.8501 22.8503 22.8504 22.8504
  22.8504]</t>
         </is>
       </c>
@@ -11847,7 +11847,7 @@
  11.8251 11.8252 11.8252 11.8253 11.8253 11.8253 11.8256 11.8256 11.8257
  11.8258 11.8258 11.8259 11.8261 11.8261 11.8261 11.8265 11.8266 11.8267
  11.8268 11.8268 11.8269 11.827  11.8271 11.8271 11.8272 11.8272 11.8273
- 11.8274 11.8274 11.8274 11.8275 11.8276 11.8276 11.8278 11.8279 11.8279
+ 11.8274 11.8274 11.8274 11.8275 11.8276 11.8276 11.8278 11.8278 11.8279
  11.828  11.828  11.828  11.8282 11.8282 11.8282 11.8282 11.8283 11.8284
  11.8285]</t>
         </is>
@@ -12207,7 +12207,7 @@
  285429 196706 172894 204075  97432  50857 264183 286153 250597 264584
  278856  72637 280619 224281  67270 164520 258254 280684 132273  73289
  230785 286512  62186  53756 239439 263306  70522 267090 265697 148554
- 264346 203245 113701 111732 234771  53846 256967 122137 260628 247400
+ 264346 203245 113701 234771 111732  53846 256967 122137 260628 247400
   73155 261185 191475 120389 153701 215938  30226 131102  37730 286388]</t>
         </is>
       </c>
@@ -12217,7 +12217,7 @@
  22.3996 22.3999 22.4004 22.4004 22.4005 22.4006 22.4007 22.4007 22.4015
  22.4017 22.4017 22.4021 22.4022 22.4024 22.4026 22.4026 22.4027 22.4027
  22.4028 22.403  22.4032 22.4033 22.4033 22.4033 22.4034 22.4035 22.4037
- 22.4039 22.404  22.404  22.4042 22.4042 22.4043 22.4044 22.4045 22.4045
+ 22.4039 22.404  22.404  22.4041 22.4042 22.4043 22.4044 22.4045 22.4045
  22.4046 22.4047 22.4049 22.405  22.405  22.4051 22.4052 22.4052 22.4053
  22.4055 22.4056 22.4057 22.4058 22.4058 22.406  22.406  22.4062 22.4062
  22.4062 22.4063 22.4069 22.407  22.4072 22.4073 22.4073 22.4074 22.4074
@@ -12370,7 +12370,7 @@
         <is>
           <t>[220146 117134  34923 194180 258230 186258 260396 250624 241190 149104
  275566 254677 247960 218109 128188 280573 259883 199859  18875  12045
- 217061 140971 209428 105460  77450   9211 235456 202346 129865 129873
+ 217061 140971 209428 105460  77450   9211 235456 202346 129873 129865
   73871  74130   6369 223404 171186 171915 126904 216170 113999 168195
  157913 244396 272582 126509 182992 212514  59113 156648  50938 198804
   69219 118839  50618 238279  50987 209807 127243 243434  92684   2910
@@ -12417,7 +12417,7 @@
         <is>
           <t>[16.2962 16.2974 16.2978 16.2986 16.3013 16.3021 16.3022 16.3033 16.3037
  16.304  16.3051 16.3056 16.3059 16.306  16.3061 16.3064 16.3065 16.3065
- 16.3067 16.3069 16.307  16.3071 16.3072 16.3074 16.3081 16.3082 16.3083
+ 16.3067 16.3069 16.3071 16.3071 16.3072 16.3074 16.3081 16.3082 16.3083
  16.3088 16.3092 16.3093 16.3093 16.3094 16.3098 16.3099 16.31   16.3105
  16.311  16.3116 16.3118 16.3121 16.3124 16.3124 16.3128 16.3129 16.3129
  16.3134 16.3134 16.3139 16.314  16.3142 16.3145 16.3147 16.3148 16.3148
@@ -12492,7 +12492,7 @@
  15.8475 15.8478 15.8479 15.8479 15.848  15.8481 15.8482 15.8482 15.8482
  15.8482 15.8483 15.8483 15.8484 15.8485 15.8486 15.8487 15.8487 15.8488
  15.8488 15.8488 15.8489 15.8489 15.849  15.8492 15.8493 15.8493 15.8494
- 15.8494 15.8495 15.8496 15.8497 15.8497 15.8497 15.8497 15.8497 15.8498
+ 15.8494 15.8495 15.8496 15.8496 15.8497 15.8497 15.8497 15.8497 15.8498
  15.8499 15.8499 15.8499 15.8502 15.8502 15.8502 15.8504 15.8505 15.8506
  15.8508 15.8511 15.8511 15.8512 15.8512 15.8512 15.8512 15.8513 15.8513
  15.8513 15.8513 15.8514 15.8515 15.8515 15.8516 15.8517 15.8517 15.8518
@@ -12626,7 +12626,7 @@
           <t>[11.8961 11.8962 11.8976 11.8992 11.8993 11.9018 11.9021 11.9023 11.9031
  11.9039 11.9044 11.9045 11.9047 11.9053 11.9054 11.9059 11.906  11.9065
  11.9068 11.907  11.9072 11.9076 11.9079 11.908  11.9088 11.9089 11.9092
- 11.9095 11.9097 11.9101 11.9102 11.9104 11.9105 11.9105 11.9106 11.9107
+ 11.9095 11.9097 11.9101 11.9102 11.9104 11.9105 11.9105 11.9107 11.9107
  11.9108 11.9109 11.911  11.9117 11.9119 11.9122 11.9123 11.9131 11.9131
  11.9132 11.9132 11.9133 11.9135 11.9137 11.9138 11.9141 11.9145 11.9145
  11.9147 11.9149 11.9149 11.915  11.9153 11.9157 11.9158 11.9159 11.916
@@ -12723,7 +12723,7 @@
  202852  62035 133763 258286 268179 188321  98723 130922 170797 112615
  262408  15224 152322  41513  22640 170115 173096 218472  27193  39860
  134569 249499 183981 222873 280532 123616  17899 151442 251300 225594
-  71780 276258 248689 205780 124704  33908  10876  74744 277977  67093]</t>
+ 276258  71780 248689 205780 124704  33908  10876  74744 277977  67093]</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -12769,7 +12769,7 @@
  17.5173 17.5173 17.5174 17.5175 17.5179 17.5179 17.5179 17.5181 17.5182
  17.5183 17.5185 17.5185 17.5186 17.5189 17.5189 17.519  17.5191 17.5192
  17.5192 17.5193 17.5198 17.5201 17.5203 17.5203 17.5203 17.5203 17.5205
- 17.5205 17.5207 17.5208 17.5208 17.5209 17.5209 17.5209 17.521  17.5213
+ 17.5205 17.5207 17.5208 17.5208 17.5208 17.5209 17.5209 17.521  17.5213
  17.5217 17.5217 17.5218 17.5219 17.522  17.522  17.5221 17.5221 17.5221
  17.5222 17.5223 17.5225 17.5226 17.5226 17.5227 17.5227 17.5227 17.5229
  17.5229 17.5229 17.5231 17.5231 17.5234 17.5235 17.5236 17.5237 17.5238
@@ -12926,9 +12926,9 @@
  186694  53646 199916 190593 283039  53323   3657 261384 102158 269442
  135876 241911 125096 254007  18769 271395 113957 201244 164780 115007
  189588 237956 254995 190582  70946 193457 181098 163981 268523 160412
- 172152  93483 232306  86075 186406   5168 267599  43363 109751 273581
+ 172152  93483 232306  86075 186406 267599   5168  43363 109751 273581
  278237  13709 245304  42013  91539 248106  55331 217978 225469 238542
- 257205  80177  54049  33755 204008 223189  13811 128843  93489 217794
+ 257205  80177  54049 204008  33755 223189  13811 128843  93489 217794
  152886 145779 131492 252221 126225 120824  79522 171740  43865 113467
  274123 113468  50391  94170 161427 207766 266317 134557 272440 174477
  283498 274092 129953 201400 245227 168775  96069  18971 145720  96677]</t>
@@ -12975,7 +12975,7 @@
  7.9611 7.9622 7.9626 7.963  7.963  7.9633 7.9633 7.9636 7.9652 7.9654
  7.9657 7.9659 7.966  7.9663 7.9666 7.9667 7.9677 7.9677 7.9677 7.9679
  7.9679 7.9688 7.9689 7.9691 7.9694 7.9694 7.9696 7.9697 7.9698 7.9699
- 7.9699 7.9704 7.9714 7.9718 7.9722 7.9723 7.9724 7.9727 7.9727 7.9731
+ 7.9699 7.9704 7.9714 7.9717 7.9722 7.9723 7.9724 7.9727 7.9727 7.9731
  7.9731 7.9731 7.9733 7.9736 7.9743 7.9743 7.9749 7.975  7.975  7.9751
  7.9751 7.9753 7.9755 7.9756 7.9757 7.9758 7.9758 7.9758 7.976  7.976
  7.976  7.9763 7.9765 7.9767 7.9769 7.977  7.977  7.9771 7.9771 7.9773
@@ -13045,7 +13045,7 @@
  11.9902 11.9906 11.9908 11.9908 11.9909 11.9911 11.9911 11.9911 11.9914
  11.9915 11.9916 11.9916 11.9918 11.9919 11.992  11.9921 11.9921 11.9923
  11.9925 11.9925 11.9925 11.9925 11.9926 11.9927 11.9927 11.9927 11.9927
- 11.9928 11.9932 11.9933 11.9934 11.9934 11.9935 11.9935 11.9935 11.9935
+ 11.9928 11.9932 11.9933 11.9934 11.9934 11.9934 11.9935 11.9935 11.9935
  11.9936 11.9936 11.9937 11.9937 11.9939 11.9939 11.994  11.9941 11.9941
  11.9942 11.9945 11.9946 11.9946 11.9948 11.9949 11.9952 11.9952 11.9953
  11.9953]</t>
@@ -13375,7 +13375,7 @@
   11488 117878 212514 214723 246193 150735 268995 230802  43054 202243
  241395 112656 280573 268327 113159 286054   2876 130071 232379 251167
  286551 119017 127112 145779 171980 151537 287229 151928  58418 220107
- 287158 269676 252294 108556 257525 176417 208699  26317 242313  72931
+ 287158 269676 252294 257525 108556 176417 208699  26317 242313  72931
  251457 285607  54568 258002 207219 244051 257962 198468 220146  61652]</t>
         </is>
       </c>
@@ -13438,7 +13438,7 @@
           <t>[264346 171180  90372  58099 251572 251974  23113 262930 264007 225950
  265020  70643 251573 262516 278481  51495 171833 248314  90376 261979
  184554   5465  29633 263509   1678  89772 263288 254412 263957 181908
- 244691 259088 258289 219299 255651 254916 229642 258723 259659 254527
+ 259088 244691 258289 219299 255651 254916 229642 258723 259659 254527
   66488 234289 139782 262403  66657   5320 258283  87829 259663 252477
  230785 259888 255478  58101  62678 252248 132446 265114 103414  50466
   32817 261963 148738  56360  59444  53474 254371 169312 106780 262559
@@ -13579,7 +13579,7 @@
  233241 128090  50549 264891 233239  48736 116468 261557 213161 259057
  108380  89058 116481 253170  41513 176398  20473 164871  49648 128298
  261238 258235 196400 175636 203195 262244 263654 235382  82711  85827
- 206180 261055 197046 254340  40341 233473 238838  67485 220157 225247
+ 206180 261055 197046 254340  40341 233473 238838  67485 225247 220157
  172035  56665 252972 100655 194517 208376 257776 280525 280589  20957
  226617 116133 206654  32971 234346 187142 233223  99302 115163  71776
  183362 231007 126558 268179 111388  54523  97955 114816 257772 242236
@@ -13651,7 +13651,7 @@
   19006 201400 199787 193789 199660 241785 149582 102783 125580 154764
  191146 146067 225570  47344 215844 110884 199354 243317   4235 106472
   91622 261941  48565 127082 263825  34995 147667 240337 207766 134424
- 214322  21590 222234 106780 211156 222082 199788 181625  25417 217089
+ 214322  21590 222234 106780 211156 222082 199788 181625 217089  25417
  172072 219386 207670   3829 251943  26473  22590 118728 186728 174382
  208434 208598 196390 186131 146210 240421  40167  73914 165979 229293
   81472 259088 138928 174477 276701 281570  33755 199800  86543 255331]</t>
@@ -13789,7 +13789,7 @@
  172591 158126 264465  65188  61659 154701 185912  30338  86817 107466
   49222 115413 140480 201578  22260 184214 179187 239728 163241 165927
   34473  63458  18707 127393 192847  77504 271001  92584 237292 218594
-  12731  90310 180726 206232  43029 107119 216043  30173 112773 130876
+  12731  90310 180726 206232  43029 107119 216043 112773  30173 130876
  166155 138566  22175  99937 206757 166230 256471 127219  50180  83176
  131890  53860 186258 107543 276819 163609 231990 180117 136231 278043
  245740  71758 201490  83431   9483 127995  51357 105820 185048 252787]</t>
@@ -14179,7 +14179,7 @@
       <c r="C401" t="inlineStr">
         <is>
           <t>[11.5934 11.5958 11.5959 11.598  11.5982 11.5985 11.5986 11.6005 11.6009
- 11.6022 11.6033 11.6043 11.6043 11.6049 11.6057 11.6058 11.6065 11.607
+ 11.6022 11.6033 11.6043 11.6043 11.6049 11.6057 11.6058 11.6065 11.6071
  11.6072 11.6075 11.6079 11.6084 11.6085 11.6092 11.6099 11.6101 11.6106
  11.6106 11.6109 11.6112 11.6113 11.6115 11.6115 11.6117 11.6119 11.6121
  11.6123 11.6126 11.613  11.6133 11.6135 11.6139 11.6142 11.6147 11.6148
@@ -14290,7 +14290,7 @@
  6.478  6.478  6.4787 6.4788 6.4788 6.479  6.479  6.4791 6.4792 6.4796
  6.4798 6.4799 6.4801 6.4803 6.4805 6.4805 6.4806 6.4808 6.481  6.4811
  6.4813 6.4815 6.4815 6.4815 6.4818 6.482  6.4821 6.4823 6.4823 6.4827
- 6.483  6.483  6.4832 6.4833 6.4834 6.4834 6.4834 6.4834 6.4834 6.4835
+ 6.483  6.483  6.4832 6.4833 6.4834 6.4834 6.4834 6.4834 6.4835 6.4835
  6.4836 6.4836 6.4837 6.4838 6.484  6.4842 6.4843 6.4843 6.4844 6.4844
  6.4845 6.4845 6.4846 6.4847 6.4847 6.4848 6.4848 6.4849 6.485  6.4851]</t>
         </is>
@@ -14483,7 +14483,7 @@
  199980 135056  65239  15773  57504  67187 127460  90540 157890 188548
  253900 128485 269331 150164 236087  12410 149145 179758 205729  84153
  272582 112616 235608 270068  36261 171541 233726 230513 171498 217061
- 217448 287891  25909 202852  84512  84773 246974 110791 123914 110905
+ 217448 287891  25909  84512 202852  84773 246974 110791 123914 110905
  238838  20473 133005  69523 106198 202631  26129 157509 180714 274992]</t>
         </is>
       </c>
@@ -14491,7 +14491,7 @@
         <is>
           <t>[15.1903 15.2004 15.2025 15.2026 15.2029 15.2037 15.2042 15.2049 15.205
  15.2057 15.2083 15.2084 15.2085 15.2089 15.2093 15.2099 15.2102 15.2104
- 15.2108 15.2108 15.2115 15.2117 15.2119 15.212  15.212  15.2121 15.2122
+ 15.2107 15.2108 15.2115 15.2117 15.2119 15.212  15.212  15.2121 15.2122
  15.2122 15.2123 15.2124 15.2126 15.2126 15.2129 15.2136 15.214  15.2141
  15.2143 15.2143 15.2144 15.2148 15.2152 15.2156 15.2159 15.2159 15.2159
  15.2159 15.2161 15.2161 15.2162 15.2163 15.2165 15.2165 15.2167 15.2168
@@ -14549,7 +14549,7 @@
  166904 171600  18421 173485 175507  81661 210031 112245 134807 173896
  165546 173767 223887  60442  30061 144993 235541 241265 173612 141110
   60613 207429  37489 142125 154352 173243  33908 173885  73685  28829
-  75151  24954  30065 188865 203873 146868 125036  53498  18361 165785
+  75151  24954  30065 188865 203873 146868 125036  18361  53498 165785
  169482 184708 110134 200801 185857 107362 271772 276149 277060 179324
  124008 165615  82065 166902 211172 165647 207430 105027 252512 157291
  155292 154637   9232  34553 182212 173333 173319 142086 173821  34040]</t>
@@ -14586,7 +14586,7 @@
  239517 285716  45909 287090 287459 273072 216367 183465 225156 250756
  279876 286349 286711 286362 131096 286745 182113  54418 286551 285675
   32561 240355 174343 149582 286681  26298 125580   4827 175737 287425
-  92029 211761 117153 128212  39692  58597 286441 146064 111171 255832
+  92029 211761 117153 128212  39692 286441  58597 146064 111171 255832
  286500 138928 121711 227981 286684 107208 255364 194192 287398 238700]</t>
         </is>
       </c>
@@ -14625,7 +14625,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>[16.3396 16.3396 16.3451 16.3484 16.3486 16.3494 16.3503 16.3536 16.3539
+          <t>[16.3396 16.3396 16.3451 16.3484 16.3486 16.3493 16.3503 16.3536 16.3539
  16.3539 16.3545 16.3545 16.3561 16.3562 16.3563 16.3563 16.3566 16.357
  16.3571 16.3572 16.3574 16.3574 16.3576 16.3577 16.3578 16.3583 16.3585
  16.3585 16.3585 16.3586 16.3588 16.3588 16.3589 16.3593 16.3594 16.3596
@@ -14798,7 +14798,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>[11.4267 11.4275 11.4316 11.4318 11.4319 11.4321 11.4333 11.4333 11.4337
+          <t>[11.4267 11.4275 11.4316 11.4318 11.4319 11.4321 11.4332 11.4333 11.4337
  11.4339 11.4349 11.435  11.4353 11.4355 11.4356 11.4356 11.4358 11.4359
  11.436  11.4367 11.4369 11.4371 11.4374 11.4377 11.4377 11.4379 11.4381
  11.4381 11.4382 11.4383 11.4384 11.4384 11.4384 11.4385 11.4386 11.439
@@ -14920,12 +14920,12 @@
         <is>
           <t>[  7904 140572 157009 195690 137038 117370 133718 243356 131151 100125
  194968 189239  25517 142815  56681 275757 134176  83088 222647 185721
-  44641 275099  75835 124236 200446  77433  13239 267846 196858 248456
+  44641 275099 124236  75835 200446  77433  13239 267846 196858 248456
    9069 162748 281016 175833  51365  61504 202070 196177 202659  10356
  163912 134117 200430 235213 172121 107805 223126  11876 271432 115949
    9151 266365  71329 106206 113345 231425 249762 266273 247033 127951
  202732 178136 175958 244482 274048 133928 229508 168607 127506 277857
-  50412  73906  43033 278299 197234  28016 269562  47728 229352 218150
+  50412  73906  43033 278299 197234  28016 269562 229352  47728 218150
  270364 226591 196656 195597 127975  23641 258650 154699 276816  43218
  114622 192490 133904  83098  98990  90846 128768 200679 210380 197005]</t>
         </is>
@@ -15063,7 +15063,7 @@
  220504 268096 166143 237966 100655 218343 206790 116468  91446 244954
  128370 253367 126924 218697 244754  86646  28059  46903 256054  86324
  204150   5030 205453 238469  74504 170421  21833 204338 246063 209875
- 167255  77596 168498 255772  38192 202793 266566 200271 127232 168126
+ 167255  77596 168498 255772  38192 266566 202793 200271 127232 168126
  244791 213792 222953 263419 228427 190773 255185 230820 258667 234348
  264303 266739  32553 160738 175039  12706 112417  19318 255596 146902
   12210 238144 229506  74675 250291 189023  68841  73360 189540  52893
@@ -15344,7 +15344,7 @@
  201961 156388  15458  25830  59725 274838  73524 273289  74134  18341
  275612 186065 126844  32444 251093 164110 191961 102201  25453  74917
  110246  35386 194077 214322  97387 266830 206439  86133 210742 254262
-  29204 153254  31488 106821 223578 242546 244019 186646 271882  31748
+ 153254  29204  31488 106821 223578 242546 244019 186646 271882  31748
  206430 235136 106706 158626  77170 238608 138740  52643 126364  61511]</t>
         </is>
       </c>
@@ -15447,7 +15447,7 @@
  255478 244691 275017  76696 243687 217189  76695 272933 106962  32503
  116638 163499  73155  49380 182994 126364 260196  48162 238608 209445
    5320 261185 214155 168060 256090 155340 253042  80480 146061 113701
- 104214 119980 187254  37516 125004 212510  62386 241533  33024 135434
+ 104214 119980 187254  37516 212510 125004  62386 241533  33024 135434
  159899  51218 219010 241377 128811 190677 136345  17654  60004 253935
  197840 144776 278447 184143 114912 175147  60327 223529 129007 102745
  218540 119765 269894 106609  12179  61511   9850 178694 109615 177649]</t>
@@ -15517,7 +15517,7 @@
  185989 108719 275350  92885  97236 129399  36803 274985 149935 165938
  167277 177477 175866 205197 268916 203411 238067 195756 273967 176826
  249880 215255  11166 236421 215876  83147 109642  43223  75214 218594
-  91682  29312 269766  14205 128485 284954 282626 101141 199114 268324
+  91682  29312 269766  14205 128485 284954 282626 199114 101141 268324
    9229 273968 178065 177700 277130 168137 254413 225860 281152 132871
   81230 169919 108582 164307 104700 178235 237562  53033   2910 198804
  247032 249555 239462 197527 236220 128862 229399 164039 139709 203399]</t>
@@ -15531,7 +15531,7 @@
  14.3849 14.3849 14.3852 14.3855 14.3856 14.3859 14.386  14.3862 14.3863
  14.3863 14.3868 14.3871 14.3872 14.3872 14.3873 14.3874 14.3875 14.3875
  14.3879 14.388  14.388  14.3881 14.3881 14.3884 14.3886 14.3886 14.3886
- 14.3886 14.3887 14.3887 14.389  14.3892 14.3892 14.3895 14.3895 14.3895
+ 14.3886 14.3887 14.3887 14.389  14.3892 14.3892 14.3895 14.3895 14.3896
  14.3896 14.3898 14.3898 14.3898 14.3899 14.3899 14.3899 14.3899 14.39
  14.39   14.3901 14.3903 14.3903 14.3904 14.3905 14.3905 14.3907 14.3907
  14.3908 14.3909 14.3909 14.3916 14.3917 14.3918 14.3919 14.392  14.392
@@ -15694,7 +15694,7 @@
  113491  76604 145536 160916 262346  56616 246908 233354 260376 240761
  134557 176709  58541  26278 105217 271902  79250 201815  93019 138771
   22369 195297 255913 236475  87478 252221 126869  96069 265332 214195
- 147172  61777 279640 282301 128800 209498  56783 124553 267683   6654
+ 147172  61777 279640 282301 128800 209498  56783 267683 124553   6654
   91576  50391 243419  99868 250421 172705  44470  28215  12089  87007]</t>
         </is>
       </c>
@@ -15743,7 +15743,7 @@
  5.6184 5.6184 5.6185 5.6189 5.6189 5.6193 5.6196 5.6197 5.6197 5.62
  5.62   5.6202 5.6203 5.6205 5.6206 5.6207 5.6208 5.6208 5.621  5.6213
  5.6216 5.6217 5.6219 5.6222 5.6223 5.6227 5.6227 5.6228 5.6229 5.6229
- 5.6231 5.6231 5.6232 5.6232 5.6232 5.6233 5.6233 5.6235 5.6235 5.6237
+ 5.6231 5.6231 5.6232 5.6232 5.6232 5.6233 5.6233 5.6235 5.6235 5.6236
  5.6238 5.6239 5.6239 5.6239 5.6243 5.6244 5.6247 5.6249 5.6249 5.6249]</t>
         </is>
       </c>
@@ -15827,7 +15827,7 @@
  238896 290465 156153 194740 291468 218314   1921 230944 108605 234014
   72361 290098 291202 112210 168072 137304 291827 150973 174645 292047
  280635 172212 291895 116775 241855 291723 289842 184067 249081 246357
-  28941 291451   4149  39603  72363 290368 203518 247379 290682 191453
+  28941 291451   4149  39603  72363 290368 247379 203518 290682 191453
  203491 106708 149895 232858 191284  55835 292019 239210  46625  51551
   46849 290921 291857 157348  88692 289770  16983 291937 291830 289641
    2813 291864 129778 290551   5118 231572 196382  57093 128157  76229
@@ -15872,7 +15872,7 @@
       <c r="C450" t="inlineStr">
         <is>
           <t>[8.1148 8.1159 8.1188 8.1194 8.1224 8.1243 8.1246 8.1247 8.1252 8.1259
- 8.1273 8.1274 8.1287 8.1288 8.1294 8.13   8.1302 8.1328 8.1329 8.1329
+ 8.1273 8.1273 8.1287 8.1288 8.1294 8.13   8.1302 8.1328 8.1329 8.1329
  8.1335 8.1338 8.1344 8.1345 8.1346 8.135  8.1352 8.1353 8.1355 8.1355
  8.1356 8.1361 8.1361 8.1364 8.1368 8.1369 8.1374 8.1377 8.1383 8.1385
  8.1393 8.1395 8.1397 8.1397 8.1399 8.14   8.1401 8.1403 8.1403 8.1404
@@ -16014,7 +16014,7 @@
  10.0176 10.0177 10.018  10.018  10.0183 10.0183 10.0184 10.0186 10.0188
  10.0189 10.0192 10.0194 10.0196 10.0197 10.0197 10.0198 10.0199 10.0202
  10.0203 10.0203 10.0203 10.0204 10.0208 10.0209 10.0209 10.021  10.021
- 10.021  10.0211 10.0212 10.0212 10.0212 10.0214 10.0215 10.0216 10.0216
+ 10.021  10.0211 10.0212 10.0212 10.0212 10.0214 10.0214 10.0216 10.0216
  10.0217 10.0217 10.0217 10.0218 10.0219 10.022  10.022  10.0225 10.0226
  10.0227 10.0227 10.0229 10.023  10.0231 10.0235 10.0236 10.0236 10.0236
  10.0238 10.0238 10.0238 10.0238 10.0243 10.0243 10.0243 10.0243 10.0244
@@ -16210,7 +16210,7 @@
  248948 106618 210523 218982 282999  97765 101609 128656 218984 180121
   30953 111880 165390 177268 217371 178272 136952 178271 165343 149039
  193682 236887 157142 136237 177367 192370 210524 275987 202910  87500
- 213249 269778 229741 260872 105103 220681 191016 146956  16225 213250
+ 213249 269778 260872 229741 105103 220681 191016 146956  16225 213250
  237692   6654  65154  16145  75632 214289 217024 165345 115778 168825
   45035 130714 137829 281260 238439 214000 173866  91388 131335  74637
  261988 192530 184863 165162 172940  30600 237016 186503 217320 178587
@@ -16410,7 +16410,7 @@
       <c r="B466" t="inlineStr">
         <is>
           <t>[ 36032 200659 217161  26317 158452 148333  70042 114366 129520 261357
- 135549 212495   3022  65362 146064 248329 108200 196377 227981  97970
+ 135549 212495   3022  65362 248329 146064 108200 196377 227981  97970
  178873  21280 197983 159167 269833 163613  56533 244150 216578     62
   38133 246193 240355  50818  32935  54891 175737   4833 169108 222687
  115823 204829  20818 137882   4235 264364 166111 235786 109683 166008
@@ -16486,7 +16486,7 @@
  229649 173775  54942 173866 166122 137829 124335 170089 178587 105087
  172956 200005 202443 276866 195785 165405 214274 179172 232783 271614
  166121 167662 179150 185697  45375 231304 217313 104806 181618 165425
-  61239  33751 217809 168825 191017 212729 101721 260133 172198 162817]</t>
+  61239 217809  33751 168825 191017 212729 101721 260133 172198 162817]</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -16621,7 +16621,7 @@
  266351 128735 253299  81994 174719  64074 174190 137620 247595 233325
  252828 169132 177718 235428  29869 198651 212952 124552 212909  98153
  264338 239439 206832  30226 258051 127984 174415 106778 198674  51705
- 269686 198645 136427 144663 252057 247399 118329  15364 138767 153131
+ 269686 198645 144663 136427 252057 247399 118329  15364 138767 153131
  257036 105371 107183 231204 200560 178338 280839 152322 110014 240117
  206830 185896  91789 209238 176537  47050  28719 275978 271225  53240
  281890 149606 253284  30091 110858  49137  73508 106496  71788 259640]</t>
@@ -16706,7 +16706,7 @@
  13.2719 13.2719 13.2721 13.273  13.2736 13.2737 13.2739 13.2739 13.2743
  13.2747 13.2747 13.2747 13.2751 13.2751 13.2752 13.2753 13.2754 13.2755
  13.2757 13.2759 13.2759 13.276  13.2762 13.2763 13.2763 13.2764 13.2768
- 13.277  13.2771 13.2775 13.278  13.2782 13.2782 13.2783 13.279  13.279
+ 13.277  13.2771 13.2775 13.278  13.2782 13.2782 13.2783 13.279  13.2791
  13.2793 13.2793 13.2793 13.2797 13.2797 13.2798 13.2798 13.28   13.2803
  13.2804 13.2804 13.2804 13.2807 13.2807 13.2807 13.2807 13.2808 13.2809
  13.2811 13.2811 13.2812 13.2812 13.2813 13.2813 13.2813 13.2815 13.2817
@@ -16760,7 +16760,7 @@
  288985 115725 132929 159293 288827 213800   1392  49845 272601 288588
  247929 127910 289238 288991 289161  73399 104266 265037 288386 217974
  106392 126575 290966 154754 193513  53332   9904 104264  31899  33271
- 116381 190598 210153  19914 290517 288714 202884  11786 288978 290075
+ 116381 190598 210153  19914 290517 288714 202884  11786 290075 288978
  259008   9953  50676 288986  98875 288694 228181 126577 246321  85829
  288346 240745 282835 174739  29383  79223 240845  37040 282372 174592
  288749 288834 289320 289360 290582 289252   5135  13683 289787 288873
@@ -16843,7 +16843,7 @@
  15.8894 15.8899 15.89   15.89   15.8908 15.8909 15.8911 15.8912 15.8915
  15.8919 15.8924 15.8925 15.8927 15.8928 15.8929 15.893  15.8934 15.8935
  15.8937 15.8947 15.8949 15.895  15.8953 15.8957 15.8958 15.896  15.896
- 15.8961 15.8962 15.8964 15.8965 15.8966 15.8967 15.8969 15.897  15.897
+ 15.8961 15.8962 15.8964 15.8966 15.8966 15.8967 15.8969 15.897  15.897
  15.897  15.8972 15.8973 15.8974 15.8977 15.8978 15.8979 15.8982 15.8983
  15.8984 15.8985 15.8989 15.8989 15.8989 15.899  15.899  15.8993 15.8994
  15.8994 15.8995 15.8995 15.8995 15.8995 15.8996 15.8997 15.8998 15.8999
@@ -16934,7 +16934,7 @@
  108636   6654 172940 147172  48417  74637 147272  91190 143735  49120
  248943 237438 216816 272232  38588  49126 209410 283223 209927 248948
   99334  65891  20160  88004  78734 177268  86273 180007 237692  83418
- 210071 191055  46458  61450   5361 143635 210517  81734  94558 251359
+ 210071 191055  46458  61450   5361 143635  81734 210517  94558 251359
  129655 155482 108878  55438 217024 145072 177951 135228 101266 127784
  215116   9702  95801  49273  53422  87047  32195 171719 202266 240221
  220364 223385 166636 237892 135340 239958 184863 277123 163965 120827]</t>
@@ -16971,7 +16971,7 @@
    2156 257205 106780 166062  18875 270144   3075 195401 115332  81747
  215613  99440 223189  78948 148738 261239 167953 207179 273008 236818
  280917 189870 122147  28215 203129 217118 160402 232078   6654  96677
- 230753 237513 199859 140971  94794 127969 117329 149623 170961 127835
+ 230753 237513 199859 140971  94794 127969 117329 149623 127835 170961
  247514 107225  48117 113645  80500 132771 176900 112656 218630 263326]</t>
         </is>
       </c>
@@ -17007,7 +17007,7 @@
  237127 263955 170907 227875  36814 253376 260634  51465 178532  50201
  259112 244312 228393 174515  64366 257506 137882 253706  49317 264665
  263014 132588 253072  16397  33246  81092 174666 240911 260628 219642
-   6598  64983   1692 221327 111005 175777 236337  60937 225194 255326]</t>
+   6598  64983   1692 221327 111005 175777 236337 225194  60937 255326]</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -17070,7 +17070,7 @@
   60929 123334 210698 152786 243687  11488 107025 209834 129265 210742
  251781 126844 123468  15662 274838 162092  62386 243695 147657 161174
  271029 132797  61280 272777  24148 259710 103671 139175 238608 132942
-  12385  55917 142340  78924 188548  41923  54981  85128 268891 115684
+  12385 142340  55917  78924 188548  41923  54981  85128 268891 115684
  200293 256092 119987 116934 143112 144776  31845 180714 274992 214155
  268995 177822 122115 177649  41059 279231 226670 243844 284205  47039
   33024 208354 149145  74917 125752 186987  22188 147540 161801 260196
@@ -17173,8 +17173,8 @@
  207320  47666  55452 194638  35794 132948 235481 109851  34445 235786
     340 120717  25892 136492 112808 234807  13630 136825 270175 281778
  207582 116827 197984 171186 271330  77967 231957 251818  50279 236793
-  12210  54370  50258 241810 177247  86125 258588 160696  23280 120102
- 138764 245665   5858 115290  35534  21391 237895 266096 135736 182988
+  12210  54370  50258 241810 177247  86125 258588 160696  23280 138764
+ 120102 245665   5858 115290  35534  21391 237895 266096 135736 182988
   16870 229098 282890 231346  67382  64529 273851 231564 186149  54512
  244395  21764 189023 120086 116886   1538 234012 213031 160379 207106
  220048 108379 230049 114975 275024 213033  54359  56812   6580  78985
@@ -17444,7 +17444,7 @@
           <t>[229047 165666 107487 252826  61136 119930 166085 197635 253226 235589
  176605 228318  58754  70533 188206 195448 208011 186566 213561 134670
  155806 176183  81317 181328 171715 186398 194177 266333 137221  78957
- 264723 116531 265012 229034 118758 261178 178078 240761  65822  91825
+ 264723 265012 116531 229034 118758 261178 178078 240761  65822  91825
   66991 114672 193621  97709  77900  49039  63863 186669 274228 259100
   78295 278421  91348 160442  92954  83586 253444  54516 161778  81713
  187938 160469 167160 279799 167801 198285 196661 252147 145629 214106
@@ -17614,7 +17614,7 @@
         <is>
           <t>[267624 171833 148738 230513 196853  77459  18707 242706  70643   9211
  247288  12045 161731 243340 152581 176258  87348 106780 151517 237158
- 218271 274061 251974 279598 129873 133275 246982  91733 217061 146210
+ 274061 218271 251974 279598 129873 133275 246982  91733 217061 146210
  178677 182737 275498 150177  49524 182977 117347 126652  49222  52993
  219209 225950  37976 265573 123903  26035 272120 257431 233164 122567
  206232 142603  58099 274855 271507 272998 123904 129865 184792 217071
@@ -17691,7 +17691,7 @@
   72617 118337 274002  50718 256373 121582  60670 191868   9732 144809
  237266  91194 230160   8007  34780  15272 239374  49802 239861  91252
  250598 161878  39043 191755 164187 247099 177866 129436 143407  17162
- 270566 202957 259095  21895 162521  72080 242833 105306  20364 128901]</t>
+ 270566 202957 259095  21895  72080 162521 242833 105306  20364 128901]</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -17857,7 +17857,7 @@
         <is>
           <t>[222953  47666   3672 107055  98722 245861   2914  58505  28059  42394
  143189  54532 244529 282890 207320 235481  34445 174091    340  50279
- 120086  13630 189023 130570 120717 260396   3151 108379   4205 115290
+ 120086  13630 189023 130570 120717 260396 108379   3151   4205 115290
  275024 191798 209875 154964 237513 200274 244395 113284 148355 115501
  139822 126700 126915  90948 140165 236818  54370 170961 230036  12210
  109851 247960  85574 105770  16870 264251 177027  90888 177356 111066
@@ -18110,7 +18110,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>[11.4685 11.4714 11.4721 11.4725 11.4734 11.4736 11.4739 11.4749 11.4759
+          <t>[11.4685 11.4714 11.4721 11.4725 11.4734 11.4736 11.474  11.4749 11.4759
  11.4761 11.4763 11.4767 11.477  11.4773 11.4782 11.4785 11.4787 11.4788
  11.4794 11.4797 11.4798 11.4801 11.4805 11.4807 11.4813 11.4817 11.4823
  11.4828 11.483  11.4831 11.4832 11.4834 11.4834 11.4836 11.4838 11.4844
@@ -18136,8 +18136,8 @@
  217794 186694 152886  96677 207766 257205  13709  93489   5168 236726
  190582  48978 135771 102071 186406 128615  93483 238542 217978  73016
   53323 129953 260191 163981 193457 125096  37623 241911 277128 113468
- 243377 159757 260117 189588 201979 264858 132133 240221 271395  94170
- 258676  69363 147272 233581 172622   3657 115370  52442  86075 120824
+ 243377 159757 260117 189588 201979 264858 132133 240221 271395 258676
+  94170  69363 147272 233581 172622   3657 115370  52442  86075 120824
  119491 113467 272742 160412 168481  73165 116625 160479 257179 102158
  135876 273878 164585 101149 199916 205932 254995  18971  31601 117574
  266317 269442 202960 274096 255353 113823  56918 213157  73839 121976]</t>
@@ -18152,7 +18152,7 @@
  18.8434 18.8437 18.8443 18.8443 18.8447 18.8448 18.8448 18.845  18.845
  18.8453 18.8453 18.8455 18.8455 18.8456 18.8456 18.8456 18.8458 18.8458
  18.846  18.8461 18.8462 18.8464 18.8464 18.8465 18.8465 18.8465 18.8467
- 18.8468 18.8468 18.8471 18.8472 18.8472 18.8473 18.8473 18.8473 18.8474
+ 18.8468 18.8468 18.8471 18.8471 18.8472 18.8473 18.8473 18.8473 18.8474
  18.8475 18.8477 18.8477 18.8477 18.8478 18.8478 18.8479 18.8479 18.848
  18.848  18.848  18.848  18.8482 18.8483 18.8484 18.8485 18.8485 18.8485
  18.8487 18.8487 18.8487 18.8488 18.8488 18.849  18.8492 18.8493 18.8493
@@ -18184,7 +18184,7 @@
  8.6462 8.6479 8.6487 8.6487 8.6488 8.6489 8.6491 8.6491 8.6494 8.6498
  8.6503 8.6503 8.6505 8.6507 8.6511 8.6512 8.6512 8.6512 8.6514 8.6514
  8.6515 8.6515 8.6519 8.652  8.652  8.6521 8.6522 8.6525 8.6525 8.6525
- 8.6526 8.6529 8.653  8.6531 8.6531 8.6536 8.6536 8.6536 8.6537 8.6537
+ 8.6526 8.6529 8.653  8.653  8.6531 8.6536 8.6536 8.6536 8.6537 8.6537
  8.6538 8.654  8.654  8.6541 8.6542 8.6545 8.6545 8.6546 8.6547 8.6547
  8.6548 8.6549 8.655  8.655  8.6551 8.6551 8.6554 8.6556 8.6557 8.6558
  8.656  8.656  8.6561 8.6561 8.6561 8.6562 8.6562 8.6562 8.6562 8.6563
@@ -18207,7 +18207,7 @@
  129399  49528 140456  57184 175866 122094 105757 163241 141611 146644
  106720 138220 166052 108483 102526  13752 128485  50938 232379  74400
  112754 243706 172479  56143 269573 233164  92684  12537 182882 131974
- 147669 110905 135056 100243 102322  56911 234870  87867 198804 201147
+ 147669 110905 135056 102322 100243  56911 234870  87867 198804 201147
   71780 147112  77450 173096  91733 148570 178786 277130 250624 233016]</t>
         </is>
       </c>
@@ -18428,7 +18428,7 @@
  13.2634 13.264  13.2642 13.2644 13.2644 13.2645 13.2646 13.2648 13.265
  13.2651 13.2652 13.2653 13.2653 13.2654 13.2656 13.2656 13.2657 13.2659
  13.2662 13.2663 13.2663 13.2664 13.2664 13.2665 13.2666 13.2666 13.2666
- 13.2666]</t>
+ 13.2667]</t>
         </is>
       </c>
     </row>
@@ -18479,7 +18479,7 @@
   28672 213249 200005 165390 232783 165425  40508 177464 225589 108181
  105665 172956  33751 112461  28803 191016 246621  21203 213250 250751
  195576 179172 173866 179147 217313 271614 173473 165252 104724 170089
- 202511 160620 195785  64432  16064 248314 165725  58922 166121 121589
+ 202511 160620 195785  64432  16064 165725 248314  58922 166121 121589
  212305  30649  13893 239676  79164 110624 105103 252982 217061 101517
   16225 104806 173436  89300 263314  58642 241815 271046 264164 173821
  255149 185697 167969 252512 231602 191017 231304 173373 181618  87500]</t>
@@ -19002,7 +19002,7 @@
   92074 188832 203985 254453 132091  37803 261498 209031 127630  60642
  124372 184136 111495 258362 261820 210668 259411 126717  89883 177281
  126718 276727 166664 265060 181328  81318 258992 169865 195026 139792
- 125772 161432  56826 113999  97784  13879 157913  32799 213055 231158
+ 125772  56826 161432 113999  97784  13879 157913  32799 213055 231158
  130828 252209 163074 193927 126974 199682 264157 202346 256398 205186
  118573 193221 258454 260622  31775 263281 146508 118839 167376 258289
  261231 139213 131109  54432  41768 255349 261463 200311 233681 179010]</t>
@@ -19151,7 +19151,7 @@
           <t>[18.7338 18.738  18.7388 18.7415 18.7416 18.7426 18.743  18.7454 18.7458
  18.7462 18.7465 18.7467 18.7467 18.7468 18.7469 18.7471 18.7474 18.7475
  18.7478 18.7479 18.7485 18.7486 18.7486 18.7487 18.7491 18.7493 18.7495
- 18.7502 18.7503 18.7504 18.7504 18.7505 18.7505 18.7507 18.751  18.7511
+ 18.7502 18.7503 18.7504 18.7504 18.7505 18.7505 18.7507 18.751  18.751
  18.7511 18.7515 18.7516 18.7516 18.752  18.7521 18.7522 18.7523 18.7523
  18.7525 18.7527 18.7527 18.7528 18.7529 18.7529 18.7532 18.7532 18.7534
  18.7535 18.7536 18.7538 18.7538 18.7538 18.754  18.754  18.7541 18.7541
@@ -19343,8 +19343,8 @@
           <t>[171789 263348 259037 153493  53498 104825  30308 200251  16009 104983
  205296 223044  16011 120664 159984 202346 209130 171600  73685 252512
  165785 173545 141590  30061 231065 115794 139596 105027 263806 118839
-  64473  11625 270590 205287  37489 236619  67977  51326  45065 203873
- 139022  33689 208218 259640  61830 196617 245925 168848  60442 175434
+  64473  11625 270590 205287  37489 236619  67977  51326  45065 139022
+ 203873  33689 208218 259640  61830 196617 245925 168848  60442 175434
  276771 208280  34553 179814  66932 180924 182738 210365  79448  43343
   92808 232544 105108  97133 107362 136321 258627 114435 124008 168568
  267514 130030  20082  10606  38718 146884 112245 125036 238516  24954
@@ -19447,14 +19447,14 @@
         <is>
           <t>[ 50518  28131  92201  13113 278709 218535 237218 253402 202983 107803
  212838 177148  40199 253499  53117 251559 208185  50315   2546 210195
- 228413 276128 280327 236649 276448 224629  10182 236955 263719 143958
+ 228413 276128 280327 236649 276448 224629 236955  10182 263719 143958
   73429 260471  25765 233701  82455 206165   7126 203961  30530  75046
   74453 167028 244149  38078 258492 201117  86634  28073 116133  28067
  200209 190172 250984  67147 130879 245505 212824 260716 132075  73414
  275021 215511  23020 255697 120958 227029 253700  92183 233159  86382
  124469 136840 282277 220056 227030 185839  38457 251129   1250 139460
  111230 166323  73773 264320 269729 258991 142587 162471 122939 161982
-  89805 170480 203788 247531 234800  50549 139002 122138  87586   5023]</t>
+  89805 170480 203788 247531 234800 139002  50549 122138  87586   5023]</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -19519,10 +19519,10 @@
  252956 125770  21748 125642  78860 246145  32593  86649 121990  18149
  213746 165333 113844 132897 233056 190773  42054 267949 214351  54515
  252036  77596 117795  33874 206093  74504 266214 275872  41672 256462
-  39670  65471 273586 213792 252920 229823  50365  27873 265707 189381
- 255779 178796 236029 115592 160830  61580 198093 191315  49503  21801
+  39670  65471 273586 213792 252920 229823  50365  27873 265707 255779
+ 189381 178796 236029 115592 160830  61580 198093 191315  49503  21801
  116919  75552 259821  18438 226457  63457 133106  34533 137234 208011
- 264594 253367 257434 263417 248849 189862  32533  80541 270186 265760
+ 264594 253367 257434 263417 248849 189862  32533 270186  80541 265760
  253810 223118 160504 129884 251297 271143 133457 262990  54620  78968
  120985 239106 201008 136936 170359 170421  75756  19271 240844 224399]</t>
         </is>
@@ -19674,7 +19674,7 @@
  14.6678 14.6681 14.6681 14.6682 14.6684 14.6684 14.6685 14.6686 14.6691
  14.6692 14.6693 14.6693 14.6694 14.6694 14.6694 14.6696 14.6696 14.6698
  14.67   14.6704 14.6708 14.671  14.6711 14.6712 14.6712 14.6713 14.6717
- 14.6721 14.6721 14.6724 14.6725 14.6725 14.6726 14.6726 14.6727 14.6728
+ 14.6721 14.6721 14.6724 14.6725 14.6726 14.6726 14.6726 14.6727 14.6728
  14.6728 14.6729 14.673  14.6731 14.6732 14.6733 14.6734 14.6734 14.6735
  14.6735 14.6737 14.6737 14.6738 14.6739 14.6741 14.6741 14.6742 14.6742
  14.6743 14.6744 14.6744 14.6745 14.6746 14.6747 14.6748 14.675  14.675
@@ -19851,7 +19851,7 @@
  16.2239 16.2239 16.2241 16.2243 16.2244 16.2245 16.2246 16.2247 16.2248
  16.225  16.225  16.2252 16.2252 16.2254 16.2255 16.2256 16.2256 16.2257
  16.2257 16.2257 16.2259 16.2259 16.2262 16.2262 16.2262 16.2263 16.2263
- 16.2264 16.2265 16.2265 16.2266 16.2266 16.2267 16.2267 16.2267 16.2268
+ 16.2264 16.2265 16.2265 16.2266 16.2266 16.2267 16.2267 16.2267 16.2267
  16.2268 16.2269 16.2269 16.2269 16.227  16.2272 16.2273 16.2274 16.2274
  16.2274 16.2274 16.2276 16.2276 16.2276 16.2277 16.2277 16.2277 16.2277
  16.2278 16.2279 16.228  16.228  16.2282 16.2282 16.2282 16.2283 16.2283
@@ -19948,7 +19948,7 @@
       <c r="C568" t="inlineStr">
         <is>
           <t>[10.0027 10.0045 10.0049 10.006  10.006  10.0061 10.0077 10.0081 10.0086
- 10.009  10.0091 10.0096 10.0097 10.0102 10.0104 10.0108 10.011  10.0111
+ 10.009  10.0091 10.0096 10.0097 10.0102 10.0105 10.0108 10.011  10.0111
  10.0114 10.0114 10.0116 10.0119 10.0119 10.0121 10.0122 10.0122 10.0123
  10.0124 10.0124 10.0124 10.0129 10.013  10.0131 10.0132 10.0132 10.0134
  10.0135 10.0136 10.0138 10.014  10.0145 10.0145 10.0146 10.0148 10.015
@@ -20041,7 +20041,7 @@
  175692 265785  84378  75762 201902 187287 171503 134661  12078  13609
  140882  62408 224594 210485  79180 218402  41059  80469 128643  86460
   73667  80584 130002 176150 138356 223751 133514 132337 238725 223755
-  84976 283447  57415 276950 162092 223619 157639 210583  30074 117719
+  84976 283447 276950  57415 162092 223619 157639 210583  30074 117719
  194077  89576  45626 110853 210499 133588 251233 151529 247796 150345
   87464 173966 247064 200954 142839 256396   5856 126009  72572  47189]</t>
         </is>
@@ -20074,8 +20074,8 @@
  176892  92617 217425   4768 127969 186540  81747 279799 162030 217982
  193397 157143 140489 186344  80459 124553 238314 163965  46597 161202
   94794 172940 202910 227773  95654 203135  31327  34287 275216  63863
- 204207 190625  31730 277066 148121 232955 236475  91303  96069 267365
- 165285 242481  79250 143146  78734 202674 117329 275995 123051 124627
+ 204207 190625  31730 277066 148121 232955 236475  91303  96069 165285
+ 267365 242481  79250 143146  78734 202674 117329 275995 123051 124627
  241745 148131 188824   9698 275335 259582 163931 160764 129011  51043]</t>
         </is>
       </c>
@@ -20104,7 +20104,7 @@
         <is>
           <t>[210980  20277  49357 283167  40522 104104 149714 183996 242811  58970
  249368  58726 222357  33816 192252 236503  62107 143037 243282  51829
-  27826  16288  58377 155540  88533 128515 113108  78673 141611 144851
+  27826  16288  58377 155540  88533 128515 113108  78673 144851 141611
  175206  73486  51847 265644 164682 238858 272615  98243 144602 251639
  175993  80963 128987 144867 176974 271763  67747  80931 175076 256613
   54269 187251  70673 136955  74174 101044 217086  42828  89891 139920
@@ -20176,7 +20176,7 @@
  130818 249564 209662 285173 107104 285298 201341 142842 242718 105795
   19301 232422 157636 194050  60174 132207  87394  26168 267242  64794
  124798  17804  25460 180788 105828  23795 121946 132187 194451  91477
- 192078  36763  19077 285138 216706 269766 108200 236255 285238  54083
+ 192078  36763  19077 285138 269766 216706 108200 236255 285238  54083
  124153 159381 106279  51587 180680 229365 180269 125350  81490 124800
  237276 125354  29992 180673 148333  23168  84723 148143 232676 285184
  126568 238555 158044 275782 195960  91698 183378 131452  36583 249295
@@ -20228,7 +20228,7 @@
  14.7907 14.791  14.7911 14.7911 14.7916 14.7918 14.7928 14.7928 14.7928
  14.7929 14.793  14.7931 14.7932 14.7936 14.7936 14.7938 14.794  14.794
  14.7943 14.7943 14.7944 14.7944 14.7944 14.7946 14.7947 14.795  14.7952
- 14.7952 14.7953 14.7956 14.7959 14.7959 14.7964 14.7965 14.7969 14.7971
+ 14.7952 14.7953 14.7956 14.7959 14.7959 14.7964 14.7965 14.797  14.7971
  14.7974 14.7975 14.7977 14.7977 14.7979 14.798  14.7981 14.7982 14.7983
  14.7983 14.7987 14.7987 14.7989 14.799  14.7991 14.7991 14.7994 14.7996
  14.7997 14.7997 14.7997 14.8    14.8    14.8001 14.8002 14.8002 14.8003
@@ -21141,8 +21141,8 @@
  204518 103122 123162  32799 290209 257260 116381 255080 245578 213800
  256269 162841 191206 175964 106750 214999 252553 145418 230847 237334
  222576  72920 262845 252200 248629 240911 288646 179214 240819 257938
- 241763 127263 216257  56162 141825 209031  51465 164274  63469 258597
- 259507 260738 288386 224634 244706 258454 198170 131953 161688 264322
+ 241763 127263 216257  56162 141825 209031  51465  63469 164274 258597
+ 259507 260738 288386 244706 224634 258454 198170 131953 161688 264322
  106743 260634 114239 252477 175229 260453 104228 246346 184565  88424
  258563 253812 177478 103090  66889  48195 117727 253051  43343 263690
  264665 116383 281763  97920 174381 180786  59444 172173 105271 179010]</t>
@@ -21359,7 +21359,7 @@
       <c r="C609" t="inlineStr">
         <is>
           <t>[15.4483 15.4529 15.4534 15.4554 15.456  15.4561 15.4567 15.4568 15.4568
- 15.4582 15.4585 15.4592 15.4594 15.4596 15.4599 15.4601 15.4604 15.4613
+ 15.4582 15.4585 15.4592 15.4594 15.4596 15.46   15.4601 15.4604 15.4613
  15.4619 15.4619 15.4619 15.4621 15.4623 15.4623 15.4623 15.4624 15.4625
  15.4626 15.4628 15.4629 15.4629 15.463  15.4631 15.4631 15.4635 15.4636
  15.464  15.464  15.4641 15.4641 15.4643 15.4644 15.4645 15.4647 15.4647
@@ -21466,7 +21466,7 @@
  6.7915 6.7922 6.7923 6.7923 6.7923 6.7925 6.7926 6.7929 6.7932 6.7933
  6.7934 6.7936 6.7938 6.7939 6.7946 6.7947 6.7947 6.795  6.7951 6.7952
  6.7953 6.7953 6.7954 6.7954 6.7954 6.7957 6.7958 6.7958 6.7959 6.796
- 6.7961 6.7961 6.7961 6.7962 6.7963 6.7963 6.7963 6.7965 6.7968 6.7968
+ 6.7961 6.7961 6.7961 6.7963 6.7963 6.7963 6.7963 6.7965 6.7968 6.7968
  6.797  6.7972 6.7973 6.7975 6.7975 6.7977 6.7977 6.7978 6.7979 6.798
  6.798  6.798  6.798  6.798  6.7982 6.7983 6.7984 6.7984 6.7985 6.7985
  6.7986 6.7987 6.7988 6.7988 6.7988 6.7989 6.799  6.799  6.799  6.7991
@@ -21550,8 +21550,8 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>[ 64093 270336  88013 135645  69608 266835 135628 183390 265615 148533
- 185914 187324  88010  84363 233585 119778 146504 164586 168425 213125
+          <t>[ 64093 270336  88013 135645  69608 266835 135628 183390 265615 185914
+ 148533 187324  88010  84363 233585 119778 146504 164586 168425 213125
  243968 260708 242449 135640 239449 215014  85698 198595 126701 219915
  155776 247501 171001 276750 146734   7820 157532 267750 198314 273565
   34729 208547 159006 233215  42560 182949 116985 241639  56889 211501
@@ -21600,7 +21600,7 @@
       <c r="C616" t="inlineStr">
         <is>
           <t>[12.9216 12.9219 12.923  12.9232 12.9234 12.9236 12.9237 12.925  12.9251
- 12.9255 12.9256 12.9257 12.926  12.926  12.9261 12.9262 12.9263 12.9266
+ 12.9255 12.9256 12.9257 12.926  12.926  12.9261 12.9261 12.9263 12.9266
  12.9271 12.9274 12.9277 12.9277 12.9279 12.9281 12.9284 12.9285 12.9286
  12.929  12.9291 12.9293 12.9294 12.9294 12.9294 12.9295 12.9296 12.9296
  12.9298 12.9299 12.9299 12.9301 12.9301 12.9303 12.9304 12.9304 12.9305
@@ -21694,7 +21694,7 @@
  286833 286711 286936 286211 286948 285838 286829 285661 285716 285467
  285442 286175 287398 287493 287229 286217 286349 286633 286713 286606
  286822 283654 286196 287273 286642 287585 286857 286745 273072 273082
- 286954 287599 286922 286001 285675 286203 285411 285933 285987 286870
+ 286954 287599 286001 286922 285675 286203 285411 285933 285987 286870
  196777 286275 285740 285607 286153 286630 285949 287503  47710 287158
  286150 286459 285469 287210 286991 287312 286411 287154 287368 287440
  286878 285691 286200 286750 286712  47719 285371 286551 287195 285499
@@ -21729,7 +21729,7 @@
  164165 158790 198325 198804 140504  36032   2910 128188 243434 136825
  181675 170392 207106 137596 194638 145269 120224 182992 112808 204087
   90540 212495 255875  15773 148190 274957 131797  50987  55452 188222
-   3022  22546  42047 180395 223465 207582 262337 126915 156648 223318
+   3022  42047  22546 180395 223465 207582 262337 126915 156648 223318
  220146 265657 162054 149733 122276 174091 230727 243706 182012 234075
  205186 187554 182006 251818 253561 194141 216170 170883 205811 132480
  140971 202346 213033 272283 257430 117576 115337 158183 242554 207282
@@ -21765,9 +21765,9 @@
  280917  53106 130285  46597 122147 205907  97422   3853 176642 281412
   46697  78734  36649 220364  74637 192530 130350 203129 120476 170783
  217982  91415 182820 218414 147821 227827  31327  12672 182824 211295
- 140489  89754 170689  86273 245174 124623 248358 250079  65965 195401
+ 140489  89754 170689 245174  86273 124623 248358 250079  65965 195401
  171186  72727 222420  76031 113472  61198 261988 124427  61742  49273
- 226556 111205 172129 266131 124627 242688 272735 207421 163965 135228
+ 226556 111205 172129 266131 242688 124627 272735 207421 163965 135228
   62123 195504 194157 247514 121386 108636 202390 226079 203135 229981
  272088 144747 245176  95654 252532 102989 231108 215327 237892 150887]</t>
         </is>
@@ -21776,7 +21776,7 @@
         <is>
           <t>[18.1545 18.1576 18.1579 18.1592 18.1599 18.1605 18.1612 18.1613 18.1628
  18.1632 18.1633 18.1635 18.1637 18.1639 18.1642 18.1644 18.1648 18.1648
- 18.1649 18.165  18.1652 18.1653 18.1654 18.1656 18.1656 18.1659 18.1662
+ 18.1649 18.1649 18.1652 18.1653 18.1654 18.1656 18.1656 18.1659 18.1662
  18.1663 18.1664 18.1668 18.1668 18.1669 18.1669 18.167  18.1671 18.1672
  18.1673 18.1677 18.1678 18.1678 18.168  18.1683 18.1683 18.1686 18.1692
  18.1693 18.1693 18.1696 18.1696 18.1696 18.1697 18.1697 18.1698 18.1699
@@ -21833,7 +21833,7 @@
           <t>[182748 205917 147022 106198 287891 195960 249102  29992  14648 158044
  228425 249564 194963 212825  67187 108200 228439 131023 278135 112515
  233842 112616 113679 196820 184175  56191  90210 222687 231061  77074
-  80395 231095  15322  32668 206290 233833 154969 180895 112510 175742
+  80395 231095  15322  32668 233833 206290 154969 180895 112510 175742
  148333 112613 156217  81791  63963 190919 216578 195783 197440 206517
   37585 266957 274158 116403   8221  21026   8286 190920  69118 218664
  190925 179758 278570  70906  25960 135993  98385 155910 179550 183378
@@ -22186,7 +22186,7 @@
  264981  89398 241537 152132 264169  86649 212909 142895 176537 240809
     448 280516  89636  43089 262845 243277 194761 183033 246214 272741
  104115 209589  38464 250181 235136 256728 115206 272166 255918  72902
- 235428 150224 279743 257344 277829 251898 255456  42625 105921 187917
+ 235428 150224 279743 257344 277829 251898 255456  42625 187917 105921
  261081  26278 242523 271902 198674 133386 259433 281890  81994 152817
   64180 222772  91720 260429 239345 263759  74038 264556 189669  10606
   51705  63849 224716  78860 212443 206721   7120 111764 257244 190903]</t>
@@ -22201,7 +22201,7 @@
  9.7042 9.7043 9.7048 9.7048 9.7051 9.7057 9.7057 9.7061 9.7062 9.7064
  9.7065 9.7066 9.7066 9.7067 9.7068 9.7071 9.7072 9.7073 9.7077 9.708
  9.7083 9.7085 9.7086 9.7087 9.7087 9.709  9.709  9.7094 9.7094 9.7094
- 9.7098 9.7101 9.7102 9.7103 9.7104 9.7104 9.7106 9.7106 9.7107 9.7107
+ 9.7098 9.7101 9.7102 9.7102 9.7104 9.7104 9.7106 9.7106 9.7107 9.7107
  9.7108 9.7108 9.7108 9.711  9.711  9.711  9.7111 9.7111 9.7112 9.7113
  9.7115 9.7116 9.7116 9.7121 9.7121 9.7122 9.7122 9.7122 9.7123 9.7125]</t>
         </is>
@@ -22442,7 +22442,7 @@
  24.2537 24.2539 24.2539 24.2539 24.254  24.254  24.2542 24.2544 24.2544
  24.2544 24.2546 24.2546 24.2546 24.2549 24.2549 24.255  24.255  24.2552
  24.2553 24.2554 24.2555 24.2557 24.2557 24.2559 24.2559 24.2561 24.2561
- 24.2562 24.2563 24.2563 24.2563 24.2564 24.2565 24.2565 24.2565 24.2568
+ 24.2563 24.2563 24.2563 24.2563 24.2564 24.2565 24.2565 24.2565 24.2568
  24.2569 24.2569 24.257  24.2571 24.2572 24.2572 24.2572 24.2574 24.2574
  24.2575 24.2575 24.2578 24.2578 24.258  24.2581 24.2583 24.2583 24.2584
  24.2585 24.2586 24.2586 24.2588 24.2589 24.2591 24.2592 24.2593 24.2595
@@ -22459,9 +22459,9 @@
           <t>[118573  46265 124372 139696 181654 114946 137226 152420  83336 221439
  138172 250491 139005 189056 264058  81508  41821 136920 127697 113999
  221514  81317 283731 252209 255557 109703 220185 254390 222479  60642
- 199682  41828 133982 254317 116919 224451 114974 194829 258992 265060
-  56826 255349 193927  52922 271524 245518 119967 232500 149151 114856
- 230979 254453 282248 260935 105299 164199  81318 184136 237045 253196
+ 199682  41828 254317 133982 116919 224451 114974 194829 258992 265060
+  56826 255349 193927  52922 271524 245518 119967 232500 149151 230979
+ 114856 254453 282248 260935 105299 164199  81318 184136 237045 253196
  230727 171801 265760 278991 102945 106942  32799 257354 193912  41827
  188832 279039 121093 256398 264066 195026 173344 101416 259883 129611
  262098 264412 216244 181933 203985 263468 261820   5700 170519  50365
@@ -22480,7 +22480,7 @@
  11.7703 11.7704 11.7704 11.7706 11.7707 11.771  11.7711 11.7713 11.7713
  11.7713 11.7714 11.7714 11.7714 11.7715 11.7717 11.7718 11.772  11.7721
  11.7721 11.7722 11.7723 11.7726 11.7726 11.7726 11.7726 11.7727 11.7727
- 11.7727 11.7728 11.7728 11.7729 11.7729 11.7729 11.7729 11.7731 11.7731
+ 11.7727 11.7727 11.7728 11.7729 11.7729 11.7729 11.7729 11.7731 11.7731
  11.7734]</t>
         </is>
       </c>
@@ -22665,7 +22665,7 @@
           <t>[155972  94775 176554 221939 104151  10397 192248 183504 129530 229415
  246546 186375 187132 243564  34892 142985 134350 171121  98141 211805
  171122 207185 121615 172944 183128 112612  62608 168307 167623  30703
-  73342 246567 183061 202156 266501 172356 156743  17594 152096 175913
+ 246567  73342 183061 202156 266501 172356 156743  17594 152096 175913
  194763 189431  53456  43697 215673  80961 259641 203685 284071 133332
  223509 205341  17556 142034 244223 233679 179619 237183 243112 120434
  146983  14935 271216  26488 152999 130130  13170   8327 212083 153547
@@ -22806,7 +22806,7 @@
  170497 154231 222173 272238 250473 264338 259663 212788 254761 280309
  164520 207042  73784  49131 279511 177639 102954 194630  48889 185093
  101233 257454 252788 247400  42157 109897 136548 103572  46372 240699
-  41971  81994 226061  45239 200383 257461 235413 121093 124555 252808
+  41971  81994 226061 200383  45239 257461 235413 121093 124555 252808
  260628  93019 205287 153701 216573  97432 255775  30640 215938 257733]</t>
         </is>
       </c>
@@ -22853,7 +22853,7 @@
  22.7582 22.7583 22.7584 22.7584 22.7586 22.7586 22.7587 22.7588 22.7588
  22.7588 22.7589 22.759  22.7592 22.7594 22.7595 22.7595 22.7595 22.7595
  22.7596 22.7596 22.7597 22.7599 22.7599 22.76   22.7601 22.7603 22.7603
- 22.7604 22.7605 22.7606 22.7606 22.7609 22.7609 22.7611 22.7611 22.7612
+ 22.7604 22.7605 22.7606 22.7606 22.7609 22.7609 22.761  22.7611 22.7612
  22.7613 22.7613 22.7614 22.7615 22.7616 22.7617 22.7618 22.7618 22.762
  22.7621 22.7621 22.7623 22.7624 22.7624 22.7626 22.7626 22.7626 22.7627
  22.7628 22.7629 22.7629 22.7629 22.763  22.7631 22.7631 22.7632 22.7632
@@ -22919,7 +22919,7 @@
         <is>
           <t>[16.4032 16.4039 16.4042 16.4047 16.405  16.4054 16.4055 16.4075 16.4085
  16.4094 16.4095 16.4098 16.4099 16.4105 16.4105 16.4117 16.4121 16.4122
- 16.4122 16.4124 16.4128 16.4129 16.413  16.413  16.4132 16.4132 16.4132
+ 16.4122 16.4124 16.4128 16.4129 16.413  16.413  16.4131 16.4132 16.4132
  16.4132 16.4132 16.4133 16.4135 16.4138 16.4139 16.4141 16.4144 16.4145
  16.4146 16.4148 16.415  16.415  16.4151 16.4151 16.4153 16.4156 16.4157
  16.4157 16.4159 16.4159 16.4159 16.416  16.416  16.416  16.4161 16.4161
@@ -22976,7 +22976,7 @@
           <t>[191947 186606  87693 201152 211031 267761   2821 213806 184914 237711
  186622  90670 268690  90877 208765  42394 159865  73151  51303  68134
   90948 203564 177356 241570 105771 157174 114645 133920 117702 145857
- 210692  49506  55214  53027  72537 231770  22970 113284  66249 147787
+ 210692  49506  55214  53027  72537 231770 113284  22970  66249 147787
   52494 160660 160334 125520 120020 271758  88392 218266 128964 120913
  104296 227460 162130 170067  51300 142034 280308 261897 250411 276993
  178835 193743 131860 138165  54067  90637 120001   8912  91348 265845
@@ -23201,7 +23201,7 @@
  12.4431 12.4434 12.4441 12.4442 12.4442 12.4444 12.4444 12.4444 12.4447
  12.4448 12.4448 12.4449 12.445  12.445  12.4454 12.4455 12.4457 12.4459
  12.4462 12.4463 12.4463 12.4466 12.4466 12.4466 12.4468 12.4468 12.447
- 12.4473 12.4474 12.4477 12.4478 12.4478 12.448  12.4481 12.4481 12.4481
+ 12.4474 12.4474 12.4477 12.4478 12.4478 12.448  12.4481 12.4481 12.4481
  12.4482 12.4483 12.4484 12.4485 12.4487 12.4491 12.4493 12.4494 12.4495
  12.4496 12.4497 12.4497 12.4497 12.4498 12.45   12.45   12.4501 12.4503
  12.4504]</t>
@@ -23787,7 +23787,7 @@
  20.0791 20.0792 20.0793 20.0798 20.0799 20.0801 20.0802 20.0803 20.0804
  20.0804 20.0805 20.0806 20.0808 20.0809 20.0811 20.0811 20.0812 20.0813
  20.0814 20.0815 20.0815 20.0818 20.0818 20.0819 20.0822 20.0822 20.0822
- 20.0824 20.0826 20.0828 20.083  20.0832 20.0835 20.0836 20.0837 20.0839
+ 20.0824 20.0826 20.0828 20.083  20.0833 20.0835 20.0836 20.0837 20.0839
  20.0841 20.0842 20.0842 20.0843 20.0845 20.0845 20.0845 20.0847 20.0848
  20.0848 20.0849 20.085  20.0852 20.0852 20.0852 20.0854 20.0854 20.0854
  20.0854 20.0857 20.0857 20.0859 20.0859 20.086  20.0861 20.0863 20.0864
@@ -23882,7 +23882,7 @@
  281570 224118 162054  84932  63593 106472 148707  82041  82461 280531
  281105 217637 181387 280488  11540  70463 160065 148570 218798  28676
  270500 143253 128359 102526 152817 204732  98274  57349  40993 198646
- 182006 231027 148834 144367 270490 183992 258778 232220 272196 152870]</t>
+ 182006 231027 148834 270490 144367 183992 258778 232220 272196 152870]</t>
         </is>
       </c>
       <c r="C682" t="inlineStr">
@@ -23917,7 +23917,7 @@
   66496 123764 232218 194149  49126  17815  66759 162314 175406 190812
   59725 125370 107023 124627  81823 210523 124704 139646 280531 222287
   49401  31883 280917  95654  84174 122147  24799 177367 211295  15920
- 186503  49244  78898 113651 286103 123613 118894 148798 125391 139854]</t>
+ 186503  78898  49244 113651 286103 123613 118894 148798 125391 139854]</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
@@ -24013,7 +24013,7 @@
  276312 105108 225494 262845 212909 245925 136321  53498 257938 171600
   81994 120664 105027 154637 124008 182738 239439  89636 210031 253284
  208280 210365 259640   1440 284417 175434 241366 173319 209238 214985
- 166904 203873 259044 256038 209741  66932  51326 185896 127263 194630
+ 166904 203873 256038 259044 209741  66932  51326 185896 127263 194630
  121910  39427  37489  11176 108424 225468  64180  92808  33689 192419
  142217 264322 146884  20082 159984  82063 141110  64473 142125 130030
  240809 200251 110134 232443 104825  58215 107362 250473  46178  81661
@@ -24029,7 +24029,7 @@
  15.7612 15.7615 15.7617 15.7619 15.7619 15.7621 15.7621 15.7621 15.7621
  15.7622 15.7627 15.763  15.763  15.7631 15.7633 15.7635 15.7635 15.7637
  15.7637 15.7639 15.7639 15.764  15.7644 15.7645 15.7646 15.7646 15.7647
- 15.7648 15.7648 15.7649 15.765  15.7651 15.7651 15.7652 15.7653 15.7653
+ 15.7648 15.7648 15.7648 15.765  15.7651 15.7651 15.7652 15.7653 15.7653
  15.7654 15.7654 15.7655 15.7655 15.7655 15.7656 15.766  15.7661 15.7662
  15.7663 15.7664 15.7666 15.7667 15.7667 15.7668 15.7669 15.7669 15.7669
  15.7672 15.7672 15.7672 15.7674 15.7676 15.7676 15.7676 15.7677 15.7677
@@ -24047,7 +24047,7 @@
           <t>[245966  93019 191961 151496 205049 253444 243836  18703  96283 219568
  206999  53737 162582  32131 157738 151321 114289 265697  62186  15974
  152206 113701 245941  61511 213816 160460  35386  88921 194414 232919
- 183157  73155 205982  55917 251093 283362 269412  40964  31788 197840
+ 183157  73155 205982 251093  55917 283362 269412  40964  31788 197840
  179680 149549 132273 192502 132534 235413 197326 266830   2555   9850
  146059 130341   2484 119116 241745 149544  20705  28215 227060 109306
   58827 239439 204221 226458 223828 245731 255775 280309 159003  31488
@@ -24363,7 +24363,7 @@
  166143 273369 120086 105027 108379 264251 126700 248849 120664  34445
  244826 121990 110333 200271 189682 175284  63761 214289  34553 120102
  118142 245540  25892 229098 111066  35794 271460 115732  80541 126970
- 169766 244529  19271   6580 266344  13630 141800 173782 238516 189699
+ 169766 244529  19271   6580 266344 141800  13630 173782 238516 189699
   19892 274147 146884  35402  37489 133060  46903 201783 109851  64473]</t>
         </is>
       </c>
@@ -24638,7 +24638,7 @@
   83064  29469  86133 107466 271782 244331 192017 216043 201490 238886
  175774 265173  90092 232069 254528 202772 127393  74467 127995 163241
  206757 172591 108364  86817  16349  38804  82808  28191  51357 112773
- 131890 108361 166230  26010 136231 235048  12781 133963 107543 275548]</t>
+ 131890 108361 166230  26010 136231 235048  12781 133963 275548 107543]</t>
         </is>
       </c>
       <c r="C704" t="inlineStr">
@@ -24962,7 +24962,7 @@
  13.9189 13.9191 13.9193 13.9198 13.9201 13.9202 13.9204 13.9205 13.9206
  13.9208 13.9213 13.9215 13.9216 13.9216 13.9216 13.9216 13.9218 13.9218
  13.9219 13.9219 13.9219 13.9221 13.9222 13.9222 13.9223 13.9224 13.9224
- 13.9226 13.9227 13.9228 13.9228 13.9229 13.9231 13.9231 13.9231 13.9231
+ 13.9226 13.9227 13.9228 13.9228 13.9229 13.9231 13.9231 13.9231 13.9232
  13.9232 13.9232 13.9232 13.9232 13.9235 13.9236 13.9238 13.9239 13.924
  13.924  13.924  13.9241 13.9243 13.9243 13.9244 13.9246 13.9246 13.9247
  13.9248]</t>
@@ -24983,7 +24983,7 @@
  171740 271395  23106 190489 113787 135876 217978 240136 103593 277128
  191882 224482 182887 179663 139131  66539 199033 160100 159779 189588
  164780  43844  98204  42250 203640  72896 125947  74319 123618 188138
- 196512 206123 154093  91082  93489  52245 139272 161762 166713 121777
+ 196512 154093 206123  91082  93489  52245 139272 161762 166713 121777
  195834  70695  93753  42013 268204 151268  18769 243890  29713 206122]</t>
         </is>
       </c>
@@ -25086,7 +25086,7 @@
  275566 255068  92074  50365 237513 230727 108379 171186 202346 264748
  216170   3022  37803  41944 244395  71656 184136 120717 218109 198804
  140971 278991 264412 263009 251818  54370 230036 129865 137244 266147
- 149733 136825 135685 132091  32799  57861 207582 255557 145755 279139
+ 149733 135685 136825 132091  32799  57861 207582 255557 145755 279139
  114975 203045 141588 213033 217118 212985  60642   2910 254453 213031]</t>
         </is>
       </c>
@@ -25155,12 +25155,12 @@
  248492 204814   1005  83147 249037  20277  22424 199980  58194 115083
   33095 139372 180975  27564 126234 170113  38469 161602 183996 130725
   67125 169539 275373 113629 266655  54197  18543  61239     47 132871
-  83148 114089 276134  46913 110258 156733 176817  27578  37391 189737]</t>
+  83148 276134 114089  46913 110258 156733 176817  27578  37391 189737]</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t>[17.6588 17.664  17.6642 17.6647 17.6656 17.6657 17.6661 17.6669 17.667
+          <t>[17.6588 17.664  17.6642 17.6647 17.6657 17.6657 17.6661 17.6669 17.667
  17.6678 17.6682 17.6689 17.6691 17.6692 17.6693 17.6693 17.6694 17.6694
  17.6695 17.6702 17.6708 17.6708 17.6709 17.6711 17.6714 17.6718 17.6718
  17.6722 17.6724 17.6726 17.6727 17.6728 17.6736 17.6737 17.6739 17.674
@@ -25204,7 +25204,7 @@
  13.6959 13.6961 13.6961 13.6963 13.6963 13.6966 13.6967 13.6969 13.6972
  13.6982 13.6983 13.6984 13.6984 13.6985 13.6985 13.6985 13.6986 13.6986
  13.6988 13.699  13.6992 13.6993 13.6993 13.6993 13.6993 13.6994 13.6996
- 13.6996 13.6998 13.6998 13.6998 13.7    13.7002 13.7002 13.7004 13.7005
+ 13.6996 13.6998 13.6998 13.6998 13.7    13.7002 13.7002 13.7005 13.7005
  13.7006 13.7007 13.7008 13.7009 13.701  13.7012 13.7012 13.7013 13.7014
  13.7015]</t>
         </is>
@@ -25224,7 +25224,7 @@
   70042 212495  56533 148333 253634 292035 158353 114366   5653  45783
   67444 168869 231377 245617 160992 241160  15773  79238  45832 290921
  227335 203491 224104 279609 251287 261357 233271 229268  72363 227675
- 290111  77074  36032 276432 271982 101321 269844 146141 171553 166008
+ 290111  77074  36032 276432 271982 101321 146141 269844 171553 166008
  239719  23819 185293 101545 190084 210403 271353 274957 267249 202852]</t>
         </is>
       </c>
@@ -25408,7 +25408,7 @@
  10.2461 10.2462 10.2466 10.247  10.2473 10.2476 10.2476 10.248  10.2481
  10.2483 10.2484 10.2489 10.2493 10.2493 10.2497 10.2497 10.2498 10.2498
  10.2499 10.2499 10.2502 10.2503 10.2504 10.2505 10.251  10.2513 10.2516
- 10.2517 10.2518 10.2519 10.2521 10.2522 10.2523 10.2524 10.2525 10.2525
+ 10.2517 10.2518 10.2519 10.2521 10.2522 10.2523 10.2524 10.2524 10.2525
  10.2525 10.2526 10.2528 10.2528 10.2529 10.2531 10.2531 10.2533 10.2533
  10.2534 10.2535 10.2536 10.2536 10.2538 10.2539 10.2541 10.2542 10.2542
  10.2544 10.2544 10.2544 10.2545 10.2547 10.2548 10.2549 10.2549 10.2549
@@ -25614,7 +25614,7 @@
       <c r="C732" t="inlineStr">
         <is>
           <t>[19.5328 19.5328 19.5343 19.5344 19.5346 19.5353 19.5355 19.536  19.5361
- 19.5362 19.5364 19.5367 19.5368 19.5368 19.537  19.5372 19.5375 19.5379
+ 19.5362 19.5364 19.5367 19.5368 19.5369 19.537  19.5372 19.5375 19.5379
  19.5379 19.538  19.538  19.5383 19.5383 19.5383 19.5385 19.5388 19.539
  19.5394 19.5396 19.5398 19.5399 19.5401 19.5402 19.5402 19.5404 19.5404
  19.5405 19.5407 19.5408 19.5408 19.5411 19.5412 19.5413 19.5413 19.5413
@@ -25718,7 +25718,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t>[10.2948 10.2965 10.2965 10.297  10.2971 10.2971 10.2972 10.2972 10.2974
+          <t>[10.2948 10.2965 10.2965 10.297  10.2971 10.2971 10.2972 10.2973 10.2974
  10.2975 10.2978 10.2979 10.298  10.298  10.2982 10.299  10.299  10.2991
  10.2992 10.2992 10.2994 10.2994 10.2995 10.2997 10.2998 10.2998 10.2999
  10.2999 10.3    10.3001 10.3002 10.3002 10.3002 10.3003 10.3003 10.3004
@@ -25859,14 +25859,14 @@
       <c r="C739" t="inlineStr">
         <is>
           <t>[14.8004 14.8007 14.8018 14.8051 14.8059 14.8063 14.8066 14.8075 14.8076
- 14.8078 14.8081 14.8084 14.809  14.8091 14.8091 14.8097 14.8098 14.8098
+ 14.8078 14.8081 14.8084 14.809  14.8091 14.8092 14.8097 14.8098 14.8098
  14.8103 14.8107 14.8111 14.8115 14.8115 14.8116 14.8117 14.8118 14.8121
  14.8121 14.8121 14.8122 14.8123 14.8125 14.813  14.8132 14.8134 14.8135
  14.814  14.8142 14.8143 14.8148 14.8149 14.8151 14.8151 14.8152 14.8154
  14.8154 14.8154 14.8154 14.8155 14.8156 14.8157 14.8157 14.816  14.8163
  14.8163 14.8164 14.8165 14.8165 14.8166 14.8166 14.8167 14.8167 14.8169
  14.817  14.8171 14.8171 14.8172 14.8173 14.8175 14.8175 14.8175 14.8179
- 14.8184 14.8184 14.8185 14.8185 14.8186 14.8186 14.8186 14.8187 14.8188
+ 14.8184 14.8184 14.8185 14.8185 14.8185 14.8186 14.8186 14.8187 14.8188
  14.8189 14.8189 14.819  14.8192 14.8192 14.8194 14.8195 14.8197 14.8197
  14.8197 14.8198 14.8199 14.8201 14.8201 14.8201 14.8202 14.8203 14.8203
  14.8203]</t>
@@ -25957,7 +25957,7 @@
  275482 206757 267153 189858 247960  66968 278621 237513 186258 161982
  168440 213556  50578 232990 249585 269795 232926 135685 100021 106840
   58505 108361 251135 195740 199287 133468  50242 201378 266337 244664
- 115845 203764  77025 271782  92239  98341 141063 243026  91580 185865
+ 115845 203764  77025  92239 271782  98341 141063 243026  91580 185865
  218594 277676  86817 282464 244678 134923 166591   4101  98336 247179]</t>
         </is>
       </c>
@@ -25988,7 +25988,7 @@
   47442 257851 241763 139696 222576 263955 257506  56528 123162 141825
  237334  63599  32799 254850 253051  64366 281371 104067 252553 185896
  197127 179214 252200 103122  71157 127630 233681 161688 255080  37737
- 209031 263452 257502 253002 127263 263281 263753 214786 106750 232917
+ 209031 263452 257502 253002 127263 263753 263281 214786 106750 232917
   54920 172171 172807 175964 258408 127264 178338  66889 155045   8438
  247406 129069  97690 236394 161815 133624  36814 266267 191011  78568
   72407  43400  46446 256134 145228 159413 161173 217448 183566  41828
@@ -26007,7 +26007,7 @@
  15.8911 15.8915 15.8917 15.8917 15.8919 15.892  15.892  15.8922 15.8925
  15.8926 15.8926 15.8928 15.8929 15.8932 15.8932 15.8932 15.8932 15.8933
  15.8935 15.8935 15.8935 15.8937 15.8938 15.8939 15.894  15.894  15.8941
- 15.8941 15.8941 15.8943 15.8943 15.8943 15.8946 15.8948 15.8949 15.8949
+ 15.8941 15.8941 15.8942 15.8943 15.8943 15.8946 15.8948 15.8949 15.8949
  15.895  15.895  15.8952 15.8952 15.8952 15.8952 15.8953 15.8953 15.8953
  15.8954]</t>
         </is>
@@ -26104,7 +26104,7 @@
       <c r="C746" t="inlineStr">
         <is>
           <t>[16.7633 16.766  16.7661 16.7682 16.7683 16.7723 16.7727 16.7742 16.7747
- 16.775  16.7753 16.7753 16.7754 16.7756 16.7756 16.7761 16.7766 16.7767
+ 16.775  16.7753 16.7753 16.7753 16.7756 16.7756 16.7761 16.7766 16.7767
  16.7768 16.7768 16.7773 16.7775 16.7776 16.7778 16.7779 16.7779 16.7779
  16.7782 16.7782 16.7785 16.7789 16.779  16.779  16.779  16.7791 16.7791
  16.7793 16.7796 16.7798 16.7798 16.78   16.7801 16.7804 16.7805 16.7806
@@ -26346,7 +26346,7 @@
  13.5169 13.5173 13.518  13.519  13.519  13.5194 13.5197 13.5203 13.5208
  13.5211 13.5212 13.5214 13.5214 13.522  13.5224 13.5229 13.5232 13.5236
  13.5237 13.524  13.524  13.5242 13.5245 13.5248 13.5251 13.5252 13.5252
- 13.5257 13.5257 13.5258 13.5258 13.5259 13.5264 13.5266 13.5267 13.5272
+ 13.5257 13.5257 13.5258 13.5258 13.5259 13.5264 13.5266 13.5267 13.5271
  13.5272 13.5276 13.5276 13.5278 13.528  13.5281 13.5281 13.5285 13.5285
  13.5289 13.529  13.5293 13.5298 13.5298 13.5298 13.5301 13.5301 13.5307
  13.5308 13.531  13.5311 13.5311 13.5314 13.5316 13.5317 13.532  13.5321
@@ -26367,7 +26367,7 @@
  192019  30116  90310 239730 256471 244331 258373 207507 105820 152460
  172591 166155  90079  24702  83431  12731  87713 252787 216538 225000
  216043 275548 250667  74467 107119  89677 276973 239728 262719 275334
-  49318 136231 228340 236838 251552 264465  78810 189466 176150 165927
+ 136231  49318 228340 236838 251552 264465  78810 189466 176150 165927
  241360 104528 277429 131890 204711  76786 112641 247496 245740  71758
  202772 202940  30338 127393   5405  74171 201492 204354 199691 260417
  216877 120166 178900 175984  25917 146380   1769  99937 201578 128181
@@ -26545,7 +26545,7 @@
   83431  43138 185525 249388 247496 210874 138204 165010   8604 189692
   33261 166155  33383 210300 203754 110110 174543 107119 186092  90682
  239730  61443 273102 201578  73524 172591 150138 104554 273837 174601
-  87924 252787  71780  77170  91796  25926 122581  49318 120811 126535
+  87924  71780 252787  77170  91796  25926 122581  49318 120811 126535
  120160 169923 198170  65932 122302 147669 274992 122388  42605 140710
    9073  30116  33939 125491 244295  74171 273834 100171 105259 181967]</t>
         </is>
@@ -26562,7 +26562,7 @@
  16.0356 16.0357 16.0357 16.0359 16.0359 16.0359 16.0361 16.0361 16.0361
  16.0361 16.0362 16.0363 16.0364 16.0364 16.0368 16.0368 16.0369 16.037
  16.0371 16.0372 16.0372 16.0375 16.0377 16.0377 16.0377 16.0378 16.0379
- 16.0379 16.038  16.038  16.0381 16.0383 16.0383 16.0385 16.0388 16.0388
+ 16.0379 16.038  16.038  16.0381 16.0382 16.0383 16.0385 16.0388 16.0388
  16.039 ]</t>
         </is>
       </c>
@@ -26866,7 +26866,7 @@
  17.6751 17.6751 17.6751 17.6752 17.6752 17.6752 17.6753 17.6755 17.6755
  17.6757 17.6758 17.6758 17.6761 17.6761 17.6763 17.6763 17.6764 17.6764
  17.6767 17.6767 17.6769 17.677  17.677  17.677  17.6771 17.6771 17.6771
- 17.6772 17.6773 17.6773 17.6773 17.6774 17.6774 17.6775 17.6775 17.6775
+ 17.6772 17.6772 17.6773 17.6773 17.6774 17.6774 17.6775 17.6775 17.6775
  17.6776 17.6776 17.6776 17.6777 17.6777 17.6777 17.6778 17.6779 17.6779
  17.6779 17.678  17.6781 17.6781 17.6782 17.6782 17.6782 17.6782 17.6782
  17.6783 17.6783 17.6784 17.6785 17.6785 17.6785 17.6786 17.6787 17.6787
@@ -26971,7 +26971,7 @@
  14.668  14.6683 14.6685 14.6686 14.6688 14.6689 14.6692 14.6692 14.6693
  14.6694 14.6695 14.6699 14.6699 14.67   14.6701 14.6703 14.6705 14.6707
  14.6708 14.6709 14.6709 14.6709 14.671  14.6715 14.6715 14.6717 14.6717
- 14.6718 14.6718 14.6719 14.672  14.6722 14.6725 14.6726 14.6727 14.6729
+ 14.6718 14.6718 14.6718 14.672  14.6722 14.6725 14.6726 14.6727 14.6729
  14.673  14.6731 14.6732 14.6733 14.6733 14.6734 14.6734 14.6736 14.6737
  14.6739 14.6739 14.674  14.674  14.674  14.6742 14.6743 14.6744 14.6744
  14.6746 14.6748 14.6748 14.675  14.6751 14.6752 14.6752 14.6753 14.6754
@@ -27001,7 +27001,7 @@
       </c>
       <c r="C772" t="inlineStr">
         <is>
-          <t>[20.984  20.9857 20.986  20.9869 20.9873 20.9874 20.9875 20.9881 20.9882
+          <t>[20.984  20.9857 20.9861 20.9869 20.9873 20.9874 20.9875 20.9881 20.9882
  20.9883 20.9887 20.9889 20.9894 20.99   20.99   20.9902 20.9903 20.9903
  20.9905 20.9905 20.9905 20.9906 20.9911 20.9911 20.9911 20.9914 20.9922
  20.9922 20.9923 20.9923 20.9924 20.9926 20.9927 20.9928 20.993  20.993
@@ -27139,7 +27139,7 @@
       </c>
       <c r="C776" t="inlineStr">
         <is>
-          <t>[22.4434 22.4461 22.4463 22.447  22.447  22.4478 22.4481 22.4481 22.4482
+          <t>[22.4434 22.4461 22.4463 22.447  22.447  22.4478 22.4481 22.4481 22.4483
  22.4485 22.4485 22.4486 22.4489 22.4489 22.4492 22.4492 22.4493 22.4493
  22.4494 22.4495 22.4495 22.4497 22.4499 22.45   22.4501 22.4501 22.4502
  22.4504 22.4504 22.4505 22.4505 22.4508 22.4509 22.4509 22.451  22.4513
@@ -27371,8 +27371,8 @@
           <t>[229429 138412 272899 156671  57708 291170 132480 234156 290043 153547
  158916 162915 290708 273395 290294 271468 270416 291571 182006 145398
  196506 204562 148570 229578  50342 271471 117289 152870 288777  61987
- 159157 189431 213229 152879 262366 126009 222340 289768 148834 248877
- 274783 140077  10642 187621 139954 252840 289622  29204 129530 199813
+ 159157 189431 213229 152879 262366 126009 222340 289768 148834 274783
+ 248877 140077  10642 187621 139954 252840 289622  29204 129530 199813
   72572  77048  17735 167495 290288 265937 152096 151841 155612 181241
  183439 289560 146644  14577 213022  85256 232361 240335  51575  30703
  145153 278886 238778 250421 272248 106398 224118  53456 246906  17556
@@ -27409,7 +27409,7 @@
  171239 149714 199258 135435 193457  20277 136955 104104 161332 225383
  215628  51829 225214 113468 242347  38955 276088  40522 230429  35103
  237721  73839 243377  11590   1176 163518 113467  78673 183148  80931
- 111263 128515 200623 128987  41245 167953  12297 135365 109519  55413
+ 111263 128515 128987 200623  41245 167953  12297 135365 109519  55413
   89891 209807 199916 251639 128843 167954  42732  98243  20999 102446
  252852 283167  88533 243282  33816 257205 163981  12385  52926 155550
   94205  20261 264229  53646 114258 225217 179275 101044  63863  75143]</t>
@@ -27515,7 +27515,7 @@
   53148  54344  21094 228750 125329 147669 147540 256651   8168 280585
  185658  41576 215621 263825 178333 123832 225876 202852 254435 119261
   44674 141377 254550 271529  79238 160992  25830 229685 266006  48726
- 166157 262719  26996  98670 177286  60234   8065 141133 231399 254233]</t>
+ 166157 262719  26996 177286  98670  60234   8065 141133 231399 254233]</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -27961,7 +27961,7 @@
   98691 126327  75589 121777 144843 225887 114594 161117 151705 239924
   38578 220905 269095  51038 224016 188138  29754 128892 186097 166278
   11635 140951 141020 220438  65845 227675 189524 202018 277286  98572
-  68843 189567 184731 257792  62703 112646 247377 154226  69674 144927
+  68843 189567 184731 257792  62703 247377 112646 154226  69674 144927
  176013   3657  98713  82821  43865 271967 262112  71809 252111 182252
  110138  26420 195387 182339 182887 118448  36396  18431 190489  23106
  108888 244061 167561 150426 121976 261788 243183 247546 108886 172925]</t>
@@ -27969,7 +27969,7 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>[11.1146 11.1149 11.1162 11.1187 11.1203 11.1205 11.1212 11.1218 11.122
+          <t>[11.1146 11.1148 11.1162 11.1187 11.1203 11.1205 11.1212 11.1218 11.122
  11.1221 11.1224 11.1227 11.1228 11.123  11.123  11.123  11.1231 11.1231
  11.1233 11.1233 11.1239 11.1241 11.1243 11.1245 11.1246 11.1248 11.1251
  11.1252 11.1255 11.1258 11.1263 11.1264 11.1265 11.1267 11.127  11.1271
@@ -28004,7 +28004,7 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>[12.0497 12.0534 12.0547 12.0553 12.0569 12.0584 12.0585 12.0586 12.0587
+          <t>[12.0497 12.0534 12.0547 12.0554 12.0569 12.0584 12.0585 12.0586 12.0587
  12.059  12.0591 12.06   12.0602 12.0603 12.0606 12.061  12.0612 12.0613
  12.0622 12.0623 12.0626 12.0627 12.0638 12.0644 12.0647 12.0649 12.0649
  12.0649 12.0651 12.0653 12.0653 12.0654 12.0654 12.0661 12.0662 12.0662
@@ -28066,7 +28066,7 @@
   14935 130130 212083 223412 162778 121836 181895 207003 223509  21549
  181970  17556 243112 172944 147983  17735 179688 179950  30703 237183
   40269 104151 250084 112888 133704 160586  43697  82725 142985 235339
- 156134 212276 203434 259615 111858 156671 211805  70853 128483 213229
+ 156134 203434 212276 259615 111858 156671 211805  70853 128483 213229
  129530  98680 207905 118447 168307 182122  42342 259641 234240  83537
  194763 243066 247242 137862  80961 259418 265964 251068 230874 204204
  196506 183610  10483 206137 247103  82727  94402  13170 154408 217859]</t>
@@ -28132,9 +28132,9 @@
   62113 120419  18438 223080 269310  78856  22334 211207 204674 146902
   54785 216786 127593  78860 237768  74415  21748  33874  83624 189540
  261274 261036 252956 246145  83457 189597  73296 220504 138863  74067
- 256338 190773  71255 125642  64566 212057 259867 137287 197345 123379
+ 256338 190773  71255 125642  64566 259867 212057 137287 197345 123379
  270167 108477  78788  22682 148655 282198 170421 203809 165633  14500
- 227725  30212 185711 124654 186441 256546 216656 251706 189381 250761
+ 227725  30212 185711 124654 186441 256546 216656 189381 251706 250761
   84359 124644  74464 194083 263417 173072 257434  57863 253673 252036
  137299 103262  12711  66401 149157  65471 217187  21801 208477 251297
  135969 270113 202786 229740  98820 125770   8581 223118 100531 179438]</t>
@@ -28248,7 +28248,7 @@
  18.0241 18.0243 18.0247 18.0248 18.0249 18.0251 18.0251 18.0252 18.0252
  18.0254 18.0254 18.0255 18.0256 18.0257 18.0258 18.0259 18.026  18.026
  18.0261 18.0262 18.0264 18.0265 18.0266 18.0266 18.0268 18.0268 18.0269
- 18.0269 18.0272 18.0273 18.0274 18.0275 18.0276 18.0276 18.0279 18.0281
+ 18.0269 18.0272 18.0273 18.0274 18.0274 18.0276 18.0276 18.0279 18.0281
  18.0283 18.0285 18.0287 18.0288 18.0288 18.0289 18.0289 18.0289 18.029
  18.0292 18.0292 18.0293 18.0293 18.0294 18.0294 18.0294 18.0296 18.0296
  18.0297 18.0297 18.0298 18.0298 18.0299 18.0299 18.03   18.03   18.0301
@@ -28287,7 +28287,7 @@
  17.3626 17.3627 17.3627 17.3629 17.3631 17.3635 17.3635 17.3636 17.3637
  17.3637 17.3637 17.3639 17.3641 17.3643 17.3644 17.3645 17.3645 17.3646
  17.3649 17.3649 17.3649 17.365  17.3651 17.3652 17.3652 17.3653 17.3653
- 17.3654 17.3656 17.3657 17.3657 17.3659 17.366  17.3661 17.3661 17.3663
+ 17.3654 17.3656 17.3657 17.3657 17.366  17.366  17.3661 17.3661 17.3663
  17.3663 17.3664 17.3665 17.3666 17.3667 17.3667 17.3667 17.3668 17.3668
  17.367 ]</t>
         </is>
@@ -28351,7 +28351,7 @@
  16.7965 16.7965 16.797  16.7972 16.7972 16.7975 16.7976 16.7982 16.7983
  16.7985 16.7987 16.7988 16.799  16.7992 16.7992 16.7992 16.7992 16.7995
  16.7995 16.7996 16.7996 16.7997 16.8001 16.8002 16.8003 16.8005 16.8005
- 16.8006 16.8008 16.8008 16.8008 16.8009 16.801  16.801  16.8011 16.8013
+ 16.8006 16.8008 16.8008 16.8008 16.8009 16.801  16.801  16.8011 16.8012
  16.8013 16.8015 16.8016 16.802  16.8021 16.8021 16.8021 16.8022 16.8026
  16.8026 16.8028 16.8028 16.8028 16.8028 16.8032 16.8032 16.8036 16.8037
  16.8038 16.8038 16.8038 16.8038 16.8039 16.8039 16.804  16.8041 16.8042
@@ -28618,7 +28618,7 @@
   24695 216197 257693 163696 105655 159867 215589  22956  62170 131202
  246058 283046  45626 106713  39299 273808  13703 216056  92626 102955
  145524  30074 182848  47957  98785 240293  71281 212842 123083  25623
- 246059  91321  52775  68287  68286 122783 284881 202570  83327 107619
+ 246059  91321  52775  68287 122783  68286 284881 202570  83327 107619
  210485 246188 136879  91302 192749 237398 125157  50294  70581 260771]</t>
         </is>
       </c>
@@ -28888,7 +28888,7 @@
  242828 241763 209031 281808 230847 243666 235784 243934 199339 225876
  214786 265858  15224 150610 263314 186987 261072 264058 169940   1453
  139213  98513 180714 188297 116219 222440 141825  85125 246621  57206
-  84512 263374 263753 107025 124298 208115 252553  78021 281371 223714
+  84512 263374 263753 124298 107025 208115 252553  78021 281371 223714
  251783 251781 258659 250047 232500 257851 115684  47233  57534 137587
  263281  36814 208107   8168 224677  57531 155045 202511 145228  15063
  264901 267810  69523 273043 256028 171746 147657 112615  11488 263688
@@ -28974,7 +28974,7 @@
  15.8565 15.8567 15.8568 15.8569 15.857  15.8571 15.8572 15.8573 15.8574
  15.8575 15.8576 15.8576 15.858  15.858  15.8581 15.8581 15.8582 15.8582
  15.8583 15.8585 15.8586 15.8587 15.8589 15.859  15.859  15.8591 15.8591
- 15.8592 15.8595 15.8595 15.8597 15.8597 15.8597 15.8598 15.86   15.86
+ 15.8592 15.8595 15.8595 15.8597 15.8597 15.8597 15.8598 15.86   15.8601
  15.8602 15.8605 15.8605 15.8605 15.8605 15.8606 15.8606 15.8606 15.8608
  15.8608 15.861  15.8611 15.8611 15.8612 15.8612 15.8613 15.8614 15.8614
  15.8614 15.8614 15.8614 15.8615 15.8616 15.8617 15.8617 15.8617 15.8617
@@ -29169,7 +29169,7 @@
  142359 193684 180133 285038 234870  26178 127468  87989 213685  75668
  164158  49624 187416 165938 144128  31126 228340 141115 166052 162966
  202507  26551 275243  29312  26174  46449 278147 276980 191713 105757
-  79421 236292 216770 271001  83389 268429 265170 251141 253626 212230]</t>
+  79421 236292 216770 271001  83389 268429 265170 251141 253626 238026]</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -29278,7 +29278,7 @@
       <c r="C838" t="inlineStr">
         <is>
           <t>[14.7853 14.7857 14.7865 14.7865 14.7869 14.7881 14.7883 14.7886 14.7893
- 14.7897 14.7898 14.7901 14.7908 14.7911 14.7911 14.7913 14.7914 14.7917
+ 14.7897 14.7898 14.7901 14.7908 14.7911 14.7911 14.7913 14.7914 14.7916
  14.7919 14.7921 14.7922 14.7932 14.7932 14.7933 14.7934 14.7934 14.7934
  14.7935 14.7938 14.7939 14.794  14.7941 14.7943 14.7945 14.7945 14.7946
  14.7947 14.7947 14.7948 14.7948 14.795  14.795  14.795  14.7951 14.7952
@@ -29386,7 +29386,7 @@
  13.1606 13.1611 13.1617 13.162  13.1632 13.1634 13.1635 13.1638 13.1641
  13.1645 13.1648 13.1656 13.1657 13.1657 13.166  13.1663 13.1664 13.1665
  13.1665 13.1666 13.1668 13.1671 13.1671 13.1674 13.1677 13.1678 13.168
- 13.1681 13.1682 13.1683 13.1684 13.1687 13.1689 13.1689 13.169  13.1693
+ 13.1681 13.1682 13.1683 13.1684 13.1688 13.1689 13.1689 13.169  13.1693
  13.1694 13.1695 13.1696 13.1698 13.1699 13.1702 13.1703 13.1708 13.171
  13.171  13.171  13.1712 13.1712 13.1713 13.1713 13.1713 13.1713 13.1713
  13.1716 13.1716 13.1718 13.1719 13.1719 13.1726 13.1726 13.1727 13.1727
@@ -29447,7 +29447,7 @@
   56918 145779 140951 113468 110516 183843 145286 184731 115380 251027
   53646 121976   8309 122328 266682 248106 225298 283039  15114 282774
  110011  98557 163981 136419 145720 238998 229181 145680  11059 265550
- 267891 113467  22283 109323  52280 199547 186926 142723 242011 125096]</t>
+ 267891 113467  22283 109323 199547  52280 186926 142723 242011 125096]</t>
         </is>
       </c>
       <c r="C843" t="inlineStr">
@@ -29473,8 +29473,8 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>[ 70533 140718 186375  67787 258077 134670  15504  95108 235589 171121
-  48883 248095 159133 155806  61136 150143 187938 236238 172261 119930
+          <t>[ 70533 140718 186375  67787 258077 134670  15504  95108 235589  48883
+ 171121 248095 159133 155806  61136 150143 187938 236238 172261 119930
  171122 186398 125329 265820 125746 193418 279629  17271 158511  15503
  169618  78957 107487 145720 167913 255531 246741 167801 137221 133195
   70510 197635 240761 109897  65506 167160 192248 265559 261494  27470
@@ -29528,7 +29528,7 @@
  12.9375 12.9376 12.9379 12.9379 12.9382 12.9389 12.939  12.9391 12.9392
  12.9393 12.9394 12.9394 12.9396 12.9397 12.9402 12.9404 12.9405 12.9405
  12.9407 12.9408 12.941  12.941  12.9411 12.9411 12.9414 12.9415 12.9417
- 12.9418 12.942  12.9426 12.9427 12.9428 12.9429 12.943  12.9432 12.9432
+ 12.9417 12.942  12.9426 12.9427 12.9428 12.9429 12.943  12.9432 12.9432
  12.9433 12.9434 12.9434 12.9435 12.9436 12.9437 12.9438 12.9438 12.9441
  12.9442 12.9442 12.9442 12.9444 12.9445 12.9447 12.9448 12.9449 12.9449
  12.945  12.9452 12.9455 12.9455 12.9456 12.9456 12.9456 12.9458 12.9459
@@ -29597,7 +29597,7 @@
  9.414  9.4143 9.4144 9.4145 9.4146 9.4146 9.4146 9.4146 9.4148 9.4149
  9.4149 9.415  9.415  9.4151 9.4151 9.4153 9.4153 9.4153 9.4154 9.4155
  9.4156 9.4156 9.4157 9.4157 9.4157 9.4159 9.4161 9.4161 9.4162 9.4163
- 9.4164 9.4166 9.4166 9.4169 9.417  9.4171 9.4172 9.4173 9.4175 9.4175
+ 9.4164 9.4166 9.4166 9.4169 9.417  9.4171 9.4172 9.4173 9.4174 9.4175
  9.4175 9.4176 9.4176 9.4176 9.4178 9.4179 9.4179 9.418  9.4181 9.4181
  9.4182 9.4182 9.4183 9.4183 9.4184 9.4184 9.4185 9.4186 9.4188 9.4189]</t>
         </is>
@@ -29829,7 +29829,7 @@
  9.4508 9.4526 9.4529 9.453  9.4533 9.4533 9.4534 9.4534 9.4537 9.4538
  9.4547 9.4548 9.4549 9.455  9.4552 9.4553 9.4553 9.4554 9.4554 9.4557
  9.4562 9.4566 9.4567 9.4568 9.4575 9.4579 9.4583 9.4583 9.4585 9.4588
- 9.4589 9.459  9.4597 9.46   9.4601 9.4602 9.4602 9.4603 9.4605 9.4609
+ 9.4589 9.459  9.4597 9.46   9.4601 9.4602 9.4602 9.4603 9.4606 9.4609
  9.4609 9.461  9.461  9.4611 9.4611 9.4613 9.4613 9.4616 9.4617 9.4618
  9.4618 9.4622 9.4623 9.4623 9.4623 9.4627 9.4634 9.4637 9.4638 9.464
  9.4642 9.4643 9.4644 9.4644 9.4645 9.4646 9.4647 9.4649 9.465  9.465
@@ -29957,7 +29957,7 @@
  144506 106398 243112 176554 196506 266559 277177 171121  34892 246546
  116806 194019  94402  93257 186375 136389  44043 137496 229415 263924
  159133 133195 167913  98141 125746  35464 192248  98432 265559  15503
- 112612 261178 283362 245166 279629 104151 205341 272707 134670  15504
+ 112612 261178 283362 104151 279629 245166 205341 272707 134670  15504
   94232 250749 186398  27470  13170 155972  70510 243523 168580 234023]</t>
         </is>
       </c>
@@ -30001,7 +30001,7 @@
           <t>[13.2408 13.2442 13.2479 13.2497 13.25   13.2525 13.2541 13.2548 13.2552
  13.2558 13.2561 13.2563 13.2565 13.2571 13.2573 13.2574 13.258  13.2582
  13.2583 13.2585 13.2587 13.2591 13.2593 13.2596 13.2596 13.2599 13.2599
- 13.2603 13.2609 13.2609 13.2612 13.2612 13.2613 13.2616 13.2616 13.2616
+ 13.2603 13.2609 13.2609 13.2611 13.2612 13.2613 13.2616 13.2616 13.2616
  13.262  13.2624 13.2628 13.263  13.263  13.2631 13.2631 13.2631 13.2632
  13.2634 13.2635 13.2636 13.2637 13.2639 13.2643 13.2647 13.2648 13.2648
  13.2649 13.2649 13.265  13.2651 13.2651 13.2653 13.2654 13.2655 13.2655
@@ -30213,7 +30213,7 @@
  11.7528 11.753  11.754  11.7541 11.7541 11.7542 11.7542 11.7552 11.7554
  11.7556 11.7558 11.7562 11.7564 11.7565 11.7566 11.7569 11.7572 11.7573
  11.7576 11.7579 11.7581 11.7582 11.7583 11.7584 11.7588 11.7588 11.7588
- 11.759  11.7593 11.7596 11.76   11.76   11.7601 11.7601 11.7602 11.7603
+ 11.759  11.7593 11.7596 11.76   11.76   11.7601 11.7601 11.7602 11.7602
  11.7604 11.7604 11.7605 11.7606 11.7608 11.7611 11.7613 11.7613 11.7617
  11.7618 11.7618 11.7619 11.762  11.762  11.762  11.7623 11.7624 11.7626
  11.7626 11.7627 11.7628 11.7629 11.7633 11.7635 11.7635 11.7639 11.764
@@ -30339,7 +30339,7 @@
    5030 264205 219796 204674  86517 234800 233803   1883 107803 190773
  241849 149230  80027  41882  39670 189870 215624  74415 121990 126970
   13113 253700   1365 160381 120419 276217 275872 112792 263696  68182
-  57462 219649 168126  35685 135969  77844 138751 217430 226457  33396
+ 219649  57462 168126  35685 135969  77844 138751 217430 226457  33396
  173407 127454  12879  74067 250034   1442 138945 104631 142035  92370
  271822 264396 282937  35282  45518 122138  78856  29586 100917 134850]</t>
         </is>
@@ -30439,7 +30439,7 @@
  254747  71236 138724  12879  11330  34313 261390  38343 264303 120473
  189870 168498 146902  91446  19318 218697  68841 200522 253181 189608
  212490   4780 265675 168126  77252  26071 218630 259830 256539 255596
- 248413  87588 263025  35685 254059 245337 244135 264961 259867 160381
+ 248413  87588 263025  35685 254059 245337 264961 244135 259867 160381
    4559 263419 112091  52893 189839 166143 238195 254976 120419 250291
  219796  59444 200726 195842 238333  71426 258667 238469 137299  80525
   12706  19271 113836 253322 258530 261710 114901 130090  74675 200781
@@ -30615,7 +30615,7 @@
   40905 260466 117134 182051 217697 155806 155910 127065 109092 267536
  149104 266559 116392 141213 171186 145269 183465 257333 194902 155775
   98557 186566 240148 253253  22546 225349  87279 202346  13879 256253
-  98280 102605 178835 163495 188222 128843 117576 132091   2156 264898
+  98280 102605 178835 163495 188222 128843 117576 132091 264898   2156
   61136  77900 272582   7311 267755  50618 263326 151416 114163   9577
  272615 157913  54949 115876 158183 254522 121659 195616 163665  27569]</t>
         </is>
@@ -30714,7 +30714,7 @@
           <t>[152890 160435 143891 272283  98274  16973  57189 280943 240421  92684
  162054 182006 145902 238668 182012 131210 182005 185906 100021 218594
  245502 118421 145241 147112 250624 230118 140456  84162 100696 218576
- 221460 171186 140710 151348 169942 223404 131801 279864 274783 156589
+ 221460 171186 140710 151348 223404 169942 131801 279864 274783 156589
   50342 228060  59769 198804 131797 131356 281105 173068 117887 108698
  144377 162440 276221  13913 160042  90948 187262 234012  47070 243706
  187063 270510 187160 265408 119757  90588 151943  77352  50180 214594
@@ -30990,7 +30990,7 @@
       <c r="B888" t="inlineStr">
         <is>
           <t>[101165  47864 270188 218726  48284 226676 199813  23080 201848 237171
-   4854 233629 171553 214259  76818 127402 215880 274783 176885 120918
+   4854 233629 171553 214259 127402  76818 215880 274783 176885 120918
   85256 277028  54444 240335 207540  61987 227035    896  96101 209316
  236622 118421 229466 246386 162915 186184 175830 139904 225156 141848
  291314 153038 162920  97641  62378 214853 259528  50342 291405 239426
@@ -31012,7 +31012,7 @@
  16.5044 16.5046 16.5047 16.5047 16.5047 16.5047 16.5049 16.5049 16.5049
  16.5055 16.5056 16.5057 16.5058 16.506  16.5061 16.5063 16.5063 16.5066
  16.5068 16.5069 16.5073 16.5074 16.5075 16.5079 16.5079 16.5081 16.5082
- 16.5084 16.5084 16.5085 16.5087 16.5087 16.5087 16.5088 16.5088 16.5088
+ 16.5084 16.5084 16.5085 16.5086 16.5087 16.5087 16.5088 16.5088 16.5088
  16.5089 16.509  16.509  16.509  16.5091 16.5092 16.5092 16.5094 16.5097
  16.5098]</t>
         </is>
@@ -31136,7 +31136,7 @@
  111072 203975  77352 242095 176900 216170  33095 212858  21761 140720
   82344 115135  59113  67706 253864   6369 199691 216971 112656 215327
  204800 241190  58505 238685 176885 217118 269151 160850  29405 115845
- 141240 189330 215628 264175  55452 207179 100885 271034 238264  29312]</t>
+ 141240 189330 215628  55452 264175 207179 100885 271034 238264  29312]</t>
         </is>
       </c>
       <c r="C892" t="inlineStr">
@@ -31171,7 +31171,7 @@
  140572 126114 175833  49504  77035 203889 275464  88370 258650  45459
   86815  56681  43218 176020 143539  30966 236750  76186 163672 215371
  279098  25517  33696 244839 186575  47728 175155 175958 120724 209313
- 197275 229352 275757  55090  71772  83098  12986 191945  43033 195081]</t>
+ 197275 275757 229352  55090  71772  83098  12986 191945  43033 195081]</t>
         </is>
       </c>
       <c r="C893" t="inlineStr">
@@ -31240,7 +31240,7 @@
  144389 252209 158183 252186 120717 203045 120102  86649 257430 160499
   13879 261920 132948 174091 263087 162114 184136 213351 108379 260935
  254453  19572 194180 259229 184201 261613  71445  54370 263348 161432
-  63582 255349 253533 114975 174406 117412  41944 177247  31277 141654
+  63582 255349 253533 174406 114975 117412  41944 177247  31277 141654
   47666 231957 211258 244731 267949 194616 238279 132091 126915 203985]</t>
         </is>
       </c>
@@ -31375,9 +31375,9 @@
  238685  83064 113858  83077 185683  68167 232990 140540  19533 228677
  201742  31714 203970 166345  30173 218326  50578 247659  80268 266123
   27755  35751  89504 189852 126391  82901 107927  42967  22237 271034
- 273418 252059 229530  22175  58770  92826 283370 170467 207984  33877
- 257103  89711 132791 160850 196963 133407  87675  90068  19497  30205
-  85430  89390   8579  61053  80559  63246 173075 255740 239424  71208
+ 273418 252059 229530  22175  58770  92826 283370 170467 207984 257103
+  33877  89711 132791 160850 196963 133407  87675  90068  19497  85430
+  30205  89390   8579  61053  80559  63246 173075 255740 239424  71208
  140757 140192 122318 190559   8538  31910 217337 177195 135723 206761
  265692 110375 158079 140578 280296  68364 140488 112797  32558 232926]</t>
         </is>
@@ -31546,7 +31546,7 @@
           <t>[137030 277938  82023 157456 272488 137025 244293 175122 278474 142266
   92894 246649 121805 237095  68415 164078 156462 146464 222230 249676
  272658 188027 267589 205029  59403 213825 140651 280483 198397 190555
- 207460 145129  81202 277075 163977 209684  89223 281174 284914 191441
+ 207460 145129  81202 277075 163977  89223 209684 281174 284914 191441
   73522  25490 219787 192527 269781   1396 195357 269596 217976 143873
  157459  19288  66244  13940 190986    383 214978  55222 237549 277422
   55218 246225 216097  68133 106838 141173   3708 140499 146041 255421
@@ -31648,7 +31648,7 @@
         <is>
           <t>[225749 269423 204835 132756  78279 199523  50563 277172 101961  86970
  245604 252648 140476   8645 267658  86759 127198  11940 163750  22908
- 140529  44095 207220  87187 232667 277662  87095 215670 189859 111588
+ 140529 207220  44095  87187 232667 277662  87095 215670 189859 111588
   61773  87699 236827 140919 137392 277080  92386  89814 192486 140528
  239823 178408 196322 141519 220603 216052  73406  64514 236007  43454
  202723 168838  14397 127955 130838  88899  62432 120414 172334 191711
@@ -31689,7 +31689,7 @@
  179584 128843 189588 203035 214322  16153 190582 170113 283039  70946
   38469  77048 209371 161508 147304 168775 177330  18971 199258 111158
  266317  38722 198904  13811 115007 147079 196355 112673 278874 147306
- 126706  48361 250948 216946  42013  42520  58039 154117  41990  20364
+ 126706  48361 250948 216946  42013  42520 154117  58039  41990  20364
   26473   5168 190659 196072  73016  51063 224743 281570 271395 234721]</t>
         </is>
       </c>
@@ -31793,7 +31793,7 @@
   62539 245454 154083 191494 136829 230974 177367  51043  51575 217744
     334  52989  44470 170511 119883 273289 265794 284634 267847 108581
  156713 126513 140449   4408 256564 245954  22369  27371 185743 234605
- 144817 161427  54428 148250  20165 104144 245610 269412 282301  50391]</t>
+ 144817 161427  54428 148250  20165 245610 104144 269412 282301  50391]</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -31833,9 +31833,9 @@
       </c>
       <c r="C912" t="inlineStr">
         <is>
-          <t>[11.2254 11.2287 11.2287 11.2292 11.2301 11.231  11.2322 11.2325 11.2333
+          <t>[11.2254 11.2287 11.2287 11.2292 11.2301 11.231  11.2323 11.2325 11.2333
  11.2339 11.234  11.2343 11.2345 11.2348 11.2352 11.2352 11.2353 11.2357
- 11.2361 11.2361 11.2367 11.2368 11.2371 11.2371 11.2373 11.2374 11.2375
+ 11.2361 11.2361 11.2367 11.2368 11.237  11.2371 11.2373 11.2374 11.2375
  11.2376 11.2377 11.2377 11.238  11.2385 11.2385 11.2387 11.2389 11.239
  11.239  11.2394 11.24   11.24   11.2404 11.2405 11.2405 11.2406 11.2406
  11.2407 11.2408 11.2409 11.2414 11.2414 11.2416 11.2417 11.2417 11.2419
@@ -31887,8 +31887,8 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>[155702  24690 127971 116980 229671 158963 121334 236603 231700  28234
-  34129 277945 274563 212079  18998 180689  16782 135815 229668 250413
+          <t>[155702  24690 127971 116980 229671 158963 121334 236603 231700  34129
+  28234 277945 274563 212079  18998 180689  16782 135815 229668 250413
   48400 237099 245745 196763 235007  19006 180690 168752  24688  30039
    4446  14927  14925 229447  13956 172219 219960 219047 135818 225196
   47987 221238 163328 189002 266339  33920 217938 248669 158217 244271
@@ -32007,7 +32007,7 @@
           <t>[12.2912 12.2981 12.2985 12.2986 12.3006 12.3009 12.3033 12.3035 12.304
  12.3044 12.3056 12.3059 12.3068 12.3075 12.3088 12.309  12.3097 12.3106
  12.3118 12.3124 12.3124 12.3132 12.3134 12.3135 12.3137 12.3139 12.314
- 12.3148 12.3149 12.3159 12.3159 12.3162 12.3163 12.3163 12.3165 12.3165
+ 12.3148 12.3149 12.3159 12.3159 12.3161 12.3163 12.3163 12.3165 12.3165
  12.3168 12.3169 12.317  12.3172 12.3181 12.3183 12.3185 12.3185 12.3187
  12.3191 12.3191 12.3192 12.3193 12.3194 12.3196 12.3196 12.3204 12.3205
  12.3206 12.3207 12.3209 12.321  12.3211 12.3213 12.3214 12.3216 12.3216
@@ -32084,7 +32084,7 @@
  10.4273 10.4274 10.4274 10.4275 10.4276 10.4276 10.4276 10.4276 10.4279
  10.4279 10.4282 10.4282 10.4284 10.4285 10.4288 10.4289 10.4289 10.4294
  10.4294 10.4294 10.4296 10.4297 10.4301 10.4301 10.4302 10.4303 10.4303
- 10.4303 10.4305 10.4306 10.4306 10.4308 10.4308 10.4309 10.4309 10.431
+ 10.4303 10.4305 10.4306 10.4306 10.4308 10.4309 10.4309 10.4309 10.431
  10.4313]</t>
         </is>
       </c>
@@ -32190,7 +32190,7 @@
  16.7696 16.7697 16.77   16.7701 16.7702 16.7703 16.7703 16.7705 16.7705
  16.7705 16.7705 16.7707 16.7707 16.771  16.7712 16.7713 16.7713 16.7715
  16.7715 16.7717 16.7717 16.7717 16.7719 16.772  16.7721 16.7722 16.7723
- 16.7723]</t>
+ 16.7724]</t>
         </is>
       </c>
     </row>
@@ -32240,7 +32240,7 @@
   99662  53106  76031 222420 172129 160521  63948 238234 175295 135228
   66458 250861 218414 192530 242688 280917  65965 202390  48229 154799
   77892 196125 160800 172162 111205 171719 122147  75339 124627 112299
- 237486 282162 266131  95700 182820 221783 176642 170689 231108 170783
+ 282162 237486 266131  95700 182820 221783 176642 170689 231108 170783
  130350 255002  49273  62123 211295 102383 194157 248358 278263  37271
  219730 269887 272088 127014 149488 215333 209022 185619 157195 121386]</t>
         </is>
@@ -32311,8 +32311,8 @@
   92142 115845  35370  91580  19533  33877 160850  50242 237513 215281
  257103  61053  50037  82901 262947  89823  90975 232078 185683 170467
  192426 107927  50600 126388 176911 266123 252815 274510  63246  86845
- 252648 251759 150317  50060 201131 251760  77504 251630 261264 242683
- 127995  50660 156851 206757 193734  90588  73293 181674  83077  31714]</t>
+ 252648 251759 150317  50060 251760 201131  77504 251630 261264 242683
+ 127995  50660 156851 206757 193734  90588 181674  73293  83077  31714]</t>
         </is>
       </c>
       <c r="C926" t="inlineStr">
@@ -32322,7 +32322,7 @@
  13.6684 13.6685 13.6688 13.669  13.669  13.669  13.6698 13.6698 13.67
  13.67   13.6703 13.6705 13.6705 13.6706 13.6707 13.6708 13.6709 13.6709
  13.671  13.671  13.671  13.6712 13.6712 13.6713 13.6713 13.6714 13.6715
- 13.6717 13.6717 13.6718 13.6718 13.672  13.6721 13.6723 13.6726 13.6726
+ 13.6717 13.6717 13.6718 13.6718 13.672  13.6721 13.6723 13.6726 13.6727
  13.6728 13.6729 13.6729 13.6733 13.6734 13.6735 13.6735 13.6736 13.6737
  13.6737 13.6738 13.6739 13.6739 13.674  13.674  13.6742 13.6743 13.6743
  13.6743 13.6746 13.6746 13.6747 13.6748 13.675  13.6751 13.6759 13.6761
@@ -32360,7 +32360,7 @@
  15.9696 15.9697 15.9698 15.97   15.9701 15.9701 15.9704 15.9704 15.9708
  15.9708 15.9709 15.9711 15.9712 15.9712 15.9713 15.9716 15.9721 15.9721
  15.9724 15.9724 15.9725 15.9727 15.9727 15.973  15.973  15.9735 15.9735
- 15.9737 15.9739 15.9739 15.974  15.9742 15.9744 15.9745 15.9745 15.9746
+ 15.9737 15.9739 15.9739 15.9741 15.9742 15.9744 15.9745 15.9745 15.9746
  15.9747 15.9748 15.9751 15.9752 15.9759 15.9759 15.9759 15.976  15.9761
  15.9762 15.9762 15.9763 15.9763 15.9764 15.9765 15.9766 15.9767 15.977
  15.977 ]</t>
@@ -32838,7 +32838,7 @@
  16.9558 16.9558 16.9559 16.9559 16.9561 16.9563 16.9564 16.9566 16.9569
  16.9571 16.9571 16.9572 16.9575 16.9575 16.9576 16.9576 16.9576 16.9578
  16.9579 16.9581 16.9582 16.9582 16.9582 16.9583 16.9583 16.9584 16.9585
- 16.9585 16.9587 16.9589 16.959  16.9592 16.9593 16.9594 16.9594 16.9594
+ 16.9585 16.9587 16.9589 16.959  16.9591 16.9593 16.9594 16.9594 16.9594
  16.9594 16.9595 16.9595 16.9596 16.9597 16.9598 16.9598 16.9599 16.9599
  16.9599 16.96   16.96   16.96   16.9601 16.9601 16.9602 16.9604 16.9605
  16.9606]</t>
@@ -32975,7 +32975,7 @@
  13.1346 13.1347 13.1348 13.1349 13.135  13.1351 13.1352 13.1352 13.1358
  13.1359 13.136  13.1363 13.1363 13.1363 13.1364 13.1364 13.1364 13.1365
  13.1365 13.1366 13.1366 13.1367 13.1369 13.1371 13.1372 13.1376 13.1377
- 13.1377 13.1378 13.1378 13.1384 13.1384 13.1387 13.1387 13.1387 13.1388
+ 13.1377 13.1378 13.1378 13.1383 13.1384 13.1387 13.1387 13.1387 13.1388
  13.1388 13.1389 13.1389 13.1389 13.139  13.1392 13.1392 13.1392 13.1393
  13.1395 13.1395 13.1395 13.1396 13.1396 13.1398 13.1398 13.1398 13.1398
  13.1398 13.1399 13.1399 13.14   13.14   13.14   13.1401 13.1401 13.1402
@@ -33011,7 +33011,7 @@
  7.9385 7.9386 7.9386 7.9387 7.9387 7.9394 7.9395 7.9397 7.9403 7.941
  7.9411 7.9415 7.9418 7.9419 7.9422 7.9422 7.9425 7.9428 7.9428 7.9429
  7.9429 7.9431 7.9432 7.9439 7.9439 7.9439 7.9441 7.9442 7.9443 7.9443
- 7.9444 7.9445 7.9445 7.9447 7.9451 7.9451 7.9453 7.9458 7.946  7.947
+ 7.9445 7.9445 7.9445 7.9447 7.9451 7.9451 7.9453 7.9458 7.946  7.947
  7.947  7.9471 7.9471 7.9472 7.9478 7.948  7.9481 7.9484 7.9486 7.9487
  7.9491 7.9492 7.9493 7.95   7.9501 7.9505 7.9505 7.9507 7.9509 7.9509
  7.951  7.9511 7.9512 7.9514 7.9515 7.9516 7.9518 7.9518 7.9519 7.9523]</t>
@@ -33032,7 +33032,7 @@
   50987  83629 261613  18875 232629 141588 120717 194638  31832 245861
   25892  58505  35794 112726 245665 116191 115290  23280 281778 140971
  200804 229749  92406 206367  50258  34953 141875 170392 104305 117648
-  83000 149733 100882 273851 105770 112808 222953  47666  34445 251818
+  83000 149733 100882 273851 105770 112808 222953  47666 251818  34445
  103721  69259  21764 253561 140165 235786 110905  92684 126904 203960]</t>
         </is>
       </c>
@@ -33074,7 +33074,7 @@
       <c r="C948" t="inlineStr">
         <is>
           <t>[8.064  8.0643 8.0657 8.0695 8.0699 8.0715 8.0718 8.0722 8.0724 8.073
- 8.0741 8.0749 8.0752 8.0753 8.0755 8.0759 8.076  8.0761 8.0765 8.0765
+ 8.0741 8.0749 8.0752 8.0753 8.0755 8.0759 8.076  8.0761 8.0764 8.0765
  8.0768 8.0778 8.078  8.0781 8.0782 8.0782 8.0784 8.0786 8.0791 8.0792
  8.0793 8.0794 8.0794 8.0796 8.0798 8.0802 8.0806 8.081  8.0811 8.0813
  8.0814 8.0814 8.0816 8.0816 8.0823 8.0824 8.0828 8.0829 8.0832 8.0833
@@ -33991,7 +33991,7 @@
  148757 220650 165459 107633 118237  67102 175485 204947  16635 276273
  221897 106766 150443 275193  61014 221919 146374 104890 138670 222508
   24240 173264 223947 139372 280355 155250 202346  16735 104889 154577
- 238516 226268  97333  67889 105661  98385 120271 175468 235494 218416
+ 238516 226268  97333  67889 105661  98385 175468 120271 235494 218416
  181675  17588 103516  80395 168937 133534 129376 156807 267469 228658
  242554 243434 233115 267458 113094 272582 165148  30133 177406 199181
   62384 148862 221666 173422  69799 258230 145269 104626 154542 191151
@@ -34349,7 +34349,7 @@
  16.2986 16.2987 16.2989 16.299  16.299  16.2991 16.2991 16.2992 16.2992
  16.2992 16.2993 16.2993 16.2993 16.2993 16.2994 16.2994 16.2995 16.2997
  16.2997 16.2998 16.2998 16.2998 16.2999 16.2999 16.3001 16.3001 16.3002
- 16.3002 16.3003 16.3003 16.3004 16.3004 16.3004 16.3008 16.3009 16.3009
+ 16.3002 16.3003 16.3003 16.3004 16.3004 16.3005 16.3008 16.3009 16.3009
  16.3012 16.3013 16.3013 16.3015 16.3015 16.3015 16.3017 16.3017 16.3017
  16.3018]</t>
         </is>
@@ -34583,7 +34583,7 @@
         <is>
           <t>[19.2948 19.2972 19.2978 19.2985 19.2987 19.3009 19.3016 19.3018 19.3021
  19.303  19.3032 19.3034 19.304  19.3045 19.3046 19.3048 19.305  19.3052
- 19.3053 19.3054 19.3057 19.3057 19.3058 19.3063 19.3063 19.3065 19.3065
+ 19.3053 19.3054 19.3057 19.3057 19.3058 19.3063 19.3063 19.3065 19.3066
  19.3067 19.3068 19.307  19.3071 19.3071 19.3073 19.3073 19.3074 19.3075
  19.3076 19.3076 19.3077 19.3078 19.3079 19.3079 19.3081 19.3084 19.3085
  19.3085 19.3086 19.3086 19.3086 19.3087 19.3088 19.3088 19.3092 19.3092
@@ -34789,7 +34789,7 @@
       </c>
       <c r="C998" t="inlineStr">
         <is>
-          <t>[6.7714 6.7714 6.7727 6.7742 6.7744 6.7746 6.7755 6.776  6.7765 6.7766
+          <t>[6.7714 6.7714 6.7728 6.7742 6.7744 6.7746 6.7755 6.776  6.7765 6.7766
  6.7768 6.7773 6.7776 6.7777 6.7779 6.7784 6.7785 6.7788 6.7791 6.7792
  6.7792 6.7792 6.7793 6.7797 6.7806 6.7809 6.7812 6.7814 6.7816 6.7817
  6.7818 6.7823 6.7825 6.7827 6.7827 6.7831 6.7834 6.7836 6.7837 6.7838
